--- a/data/raw/election/voters-age-sex-education/2023/Muğla.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Muğla.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-age_sex_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-16:53:15-82302536612" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="42">
   <si>
     <t>Muğla</t>
   </si>
@@ -140,6 +139,12 @@
   </si>
   <si>
     <t>Yatağan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -673,7 +678,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -687,16 +692,25 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1021,10 +1035,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N342"/>
+  <dimension ref="A1:N344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A309" workbookViewId="0">
-      <selection activeCell="A343" sqref="A343:A344"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,52 +1054,52 @@
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.140625" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1139,11 +1153,11 @@
       <c r="F6" s="4">
         <v>2</v>
       </c>
-      <c r="G6" s="4">
-        <v>1.8360000000000001</v>
-      </c>
-      <c r="H6" s="4">
-        <v>4.7779999999999996</v>
+      <c r="G6" s="5">
+        <v>1836</v>
+      </c>
+      <c r="H6" s="5">
+        <v>4778</v>
       </c>
       <c r="I6" s="4">
         <v>893</v>
@@ -1157,8 +1171,8 @@
       <c r="L6" s="4">
         <v>103</v>
       </c>
-      <c r="M6" s="5">
-        <v>7.6879999999999997</v>
+      <c r="M6" s="6">
+        <v>7688</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1178,14 +1192,14 @@
       <c r="F7" s="4">
         <v>1</v>
       </c>
-      <c r="G7" s="4">
-        <v>1.0429999999999999</v>
-      </c>
-      <c r="H7" s="4">
-        <v>4.0090000000000003</v>
-      </c>
-      <c r="I7" s="4">
-        <v>1.4370000000000001</v>
+      <c r="G7" s="5">
+        <v>1043</v>
+      </c>
+      <c r="H7" s="5">
+        <v>4009</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1437</v>
       </c>
       <c r="J7" s="4">
         <v>8</v>
@@ -1196,8 +1210,8 @@
       <c r="L7" s="4">
         <v>66</v>
       </c>
-      <c r="M7" s="5">
-        <v>6.6619999999999999</v>
+      <c r="M7" s="6">
+        <v>6662</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1219,14 +1233,14 @@
       <c r="F8" s="4">
         <v>43</v>
       </c>
-      <c r="G8" s="4">
-        <v>1.528</v>
-      </c>
-      <c r="H8" s="4">
-        <v>2.3039999999999998</v>
-      </c>
-      <c r="I8" s="4">
-        <v>2.4569999999999999</v>
+      <c r="G8" s="5">
+        <v>1528</v>
+      </c>
+      <c r="H8" s="5">
+        <v>2304</v>
+      </c>
+      <c r="I8" s="5">
+        <v>2457</v>
       </c>
       <c r="J8" s="4">
         <v>118</v>
@@ -1237,8 +1251,8 @@
       <c r="L8" s="4">
         <v>61</v>
       </c>
-      <c r="M8" s="5">
-        <v>6.6040000000000001</v>
+      <c r="M8" s="6">
+        <v>6604</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1261,11 +1275,11 @@
       <c r="G9" s="4">
         <v>837</v>
       </c>
-      <c r="H9" s="4">
-        <v>1.389</v>
-      </c>
-      <c r="I9" s="4">
-        <v>2.9409999999999998</v>
+      <c r="H9" s="5">
+        <v>1389</v>
+      </c>
+      <c r="I9" s="5">
+        <v>2941</v>
       </c>
       <c r="J9" s="4">
         <v>192</v>
@@ -1276,8 +1290,8 @@
       <c r="L9" s="4">
         <v>73</v>
       </c>
-      <c r="M9" s="5">
-        <v>5.71</v>
+      <c r="M9" s="6">
+        <v>5710</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1302,11 +1316,11 @@
       <c r="G10" s="4">
         <v>822</v>
       </c>
-      <c r="H10" s="4">
-        <v>2.4409999999999998</v>
-      </c>
-      <c r="I10" s="4">
-        <v>2.448</v>
+      <c r="H10" s="5">
+        <v>2441</v>
+      </c>
+      <c r="I10" s="5">
+        <v>2448</v>
       </c>
       <c r="J10" s="4">
         <v>205</v>
@@ -1317,8 +1331,8 @@
       <c r="L10" s="4">
         <v>71</v>
       </c>
-      <c r="M10" s="5">
-        <v>7.01</v>
+      <c r="M10" s="6">
+        <v>7010</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1341,11 +1355,11 @@
       <c r="G11" s="4">
         <v>514</v>
       </c>
-      <c r="H11" s="4">
-        <v>1.7669999999999999</v>
-      </c>
-      <c r="I11" s="4">
-        <v>2.839</v>
+      <c r="H11" s="5">
+        <v>1767</v>
+      </c>
+      <c r="I11" s="5">
+        <v>2839</v>
       </c>
       <c r="J11" s="4">
         <v>280</v>
@@ -1356,8 +1370,8 @@
       <c r="L11" s="4">
         <v>118</v>
       </c>
-      <c r="M11" s="5">
-        <v>6.5679999999999996</v>
+      <c r="M11" s="6">
+        <v>6568</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1382,11 +1396,11 @@
       <c r="G12" s="4">
         <v>820</v>
       </c>
-      <c r="H12" s="4">
-        <v>2.8119999999999998</v>
-      </c>
-      <c r="I12" s="4">
-        <v>2.3109999999999999</v>
+      <c r="H12" s="5">
+        <v>2812</v>
+      </c>
+      <c r="I12" s="5">
+        <v>2311</v>
       </c>
       <c r="J12" s="4">
         <v>233</v>
@@ -1397,8 +1411,8 @@
       <c r="L12" s="4">
         <v>98</v>
       </c>
-      <c r="M12" s="5">
-        <v>7.8710000000000004</v>
+      <c r="M12" s="6">
+        <v>7871</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1421,11 +1435,11 @@
       <c r="G13" s="4">
         <v>563</v>
       </c>
-      <c r="H13" s="4">
-        <v>2.1389999999999998</v>
-      </c>
-      <c r="I13" s="4">
-        <v>2.84</v>
+      <c r="H13" s="5">
+        <v>2139</v>
+      </c>
+      <c r="I13" s="5">
+        <v>2840</v>
       </c>
       <c r="J13" s="4">
         <v>364</v>
@@ -1436,8 +1450,8 @@
       <c r="L13" s="4">
         <v>159</v>
       </c>
-      <c r="M13" s="5">
-        <v>7.625</v>
+      <c r="M13" s="6">
+        <v>7625</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1453,20 +1467,20 @@
       <c r="D14" s="4">
         <v>50</v>
       </c>
-      <c r="E14" s="4">
-        <v>1.137</v>
+      <c r="E14" s="5">
+        <v>1137</v>
       </c>
       <c r="F14" s="4">
         <v>737</v>
       </c>
-      <c r="G14" s="4">
-        <v>1.361</v>
-      </c>
-      <c r="H14" s="4">
-        <v>3.2679999999999998</v>
-      </c>
-      <c r="I14" s="4">
-        <v>2.226</v>
+      <c r="G14" s="5">
+        <v>1361</v>
+      </c>
+      <c r="H14" s="5">
+        <v>3268</v>
+      </c>
+      <c r="I14" s="5">
+        <v>2226</v>
       </c>
       <c r="J14" s="4">
         <v>330</v>
@@ -1477,8 +1491,8 @@
       <c r="L14" s="4">
         <v>112</v>
       </c>
-      <c r="M14" s="5">
-        <v>9.266</v>
+      <c r="M14" s="6">
+        <v>9266</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1492,8 +1506,8 @@
       <c r="D15" s="4">
         <v>90</v>
       </c>
-      <c r="E15" s="4">
-        <v>1.319</v>
+      <c r="E15" s="5">
+        <v>1319</v>
       </c>
       <c r="F15" s="4">
         <v>469</v>
@@ -1501,11 +1515,11 @@
       <c r="G15" s="4">
         <v>807</v>
       </c>
-      <c r="H15" s="4">
-        <v>2.5110000000000001</v>
-      </c>
-      <c r="I15" s="4">
-        <v>2.589</v>
+      <c r="H15" s="5">
+        <v>2511</v>
+      </c>
+      <c r="I15" s="5">
+        <v>2589</v>
       </c>
       <c r="J15" s="4">
         <v>432</v>
@@ -1516,8 +1530,8 @@
       <c r="L15" s="4">
         <v>159</v>
       </c>
-      <c r="M15" s="5">
-        <v>8.4600000000000009</v>
+      <c r="M15" s="6">
+        <v>8460</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1533,20 +1547,20 @@
       <c r="D16" s="4">
         <v>38</v>
       </c>
-      <c r="E16" s="4">
-        <v>1.2230000000000001</v>
+      <c r="E16" s="5">
+        <v>1223</v>
       </c>
       <c r="F16" s="4">
         <v>813</v>
       </c>
-      <c r="G16" s="4">
-        <v>1.123</v>
-      </c>
-      <c r="H16" s="4">
-        <v>2.7719999999999998</v>
-      </c>
-      <c r="I16" s="4">
-        <v>1.8580000000000001</v>
+      <c r="G16" s="5">
+        <v>1123</v>
+      </c>
+      <c r="H16" s="5">
+        <v>2772</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1858</v>
       </c>
       <c r="J16" s="4">
         <v>273</v>
@@ -1557,8 +1571,8 @@
       <c r="L16" s="4">
         <v>135</v>
       </c>
-      <c r="M16" s="5">
-        <v>8.266</v>
+      <c r="M16" s="6">
+        <v>8266</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1572,8 +1586,8 @@
       <c r="D17" s="4">
         <v>75</v>
       </c>
-      <c r="E17" s="4">
-        <v>1.4670000000000001</v>
+      <c r="E17" s="5">
+        <v>1467</v>
       </c>
       <c r="F17" s="4">
         <v>484</v>
@@ -1581,11 +1595,11 @@
       <c r="G17" s="4">
         <v>844</v>
       </c>
-      <c r="H17" s="4">
-        <v>2.1459999999999999</v>
-      </c>
-      <c r="I17" s="4">
-        <v>2.0409999999999999</v>
+      <c r="H17" s="5">
+        <v>2146</v>
+      </c>
+      <c r="I17" s="5">
+        <v>2041</v>
       </c>
       <c r="J17" s="4">
         <v>225</v>
@@ -1596,8 +1610,8 @@
       <c r="L17" s="4">
         <v>176</v>
       </c>
-      <c r="M17" s="5">
-        <v>7.51</v>
+      <c r="M17" s="6">
+        <v>7510</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1613,20 +1627,20 @@
       <c r="D18" s="4">
         <v>34</v>
       </c>
-      <c r="E18" s="4">
-        <v>1.2809999999999999</v>
+      <c r="E18" s="5">
+        <v>1281</v>
       </c>
       <c r="F18" s="4">
         <v>770</v>
       </c>
-      <c r="G18" s="4">
-        <v>1.0680000000000001</v>
-      </c>
-      <c r="H18" s="4">
-        <v>2.089</v>
-      </c>
-      <c r="I18" s="4">
-        <v>1.488</v>
+      <c r="G18" s="5">
+        <v>1068</v>
+      </c>
+      <c r="H18" s="5">
+        <v>2089</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1488</v>
       </c>
       <c r="J18" s="4">
         <v>199</v>
@@ -1637,8 +1651,8 @@
       <c r="L18" s="4">
         <v>171</v>
       </c>
-      <c r="M18" s="5">
-        <v>7.141</v>
+      <c r="M18" s="6">
+        <v>7141</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1652,8 +1666,8 @@
       <c r="D19" s="4">
         <v>72</v>
       </c>
-      <c r="E19" s="4">
-        <v>1.482</v>
+      <c r="E19" s="5">
+        <v>1482</v>
       </c>
       <c r="F19" s="4">
         <v>426</v>
@@ -1661,11 +1675,11 @@
       <c r="G19" s="4">
         <v>726</v>
       </c>
-      <c r="H19" s="4">
-        <v>1.77</v>
-      </c>
-      <c r="I19" s="4">
-        <v>1.5960000000000001</v>
+      <c r="H19" s="5">
+        <v>1770</v>
+      </c>
+      <c r="I19" s="5">
+        <v>1596</v>
       </c>
       <c r="J19" s="4">
         <v>224</v>
@@ -1676,8 +1690,8 @@
       <c r="L19" s="4">
         <v>200</v>
       </c>
-      <c r="M19" s="5">
-        <v>6.5709999999999997</v>
+      <c r="M19" s="6">
+        <v>6571</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1693,8 +1707,8 @@
       <c r="D20" s="4">
         <v>41</v>
       </c>
-      <c r="E20" s="4">
-        <v>1.282</v>
+      <c r="E20" s="5">
+        <v>1282</v>
       </c>
       <c r="F20" s="4">
         <v>615</v>
@@ -1702,11 +1716,11 @@
       <c r="G20" s="4">
         <v>876</v>
       </c>
-      <c r="H20" s="4">
-        <v>1.6220000000000001</v>
-      </c>
-      <c r="I20" s="4">
-        <v>1.2969999999999999</v>
+      <c r="H20" s="5">
+        <v>1622</v>
+      </c>
+      <c r="I20" s="5">
+        <v>1297</v>
       </c>
       <c r="J20" s="4">
         <v>181</v>
@@ -1717,8 +1731,8 @@
       <c r="L20" s="4">
         <v>201</v>
       </c>
-      <c r="M20" s="5">
-        <v>6.1740000000000004</v>
+      <c r="M20" s="6">
+        <v>6174</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1732,8 +1746,8 @@
       <c r="D21" s="4">
         <v>105</v>
       </c>
-      <c r="E21" s="4">
-        <v>1.5840000000000001</v>
+      <c r="E21" s="5">
+        <v>1584</v>
       </c>
       <c r="F21" s="4">
         <v>274</v>
@@ -1741,11 +1755,11 @@
       <c r="G21" s="4">
         <v>531</v>
       </c>
-      <c r="H21" s="4">
-        <v>1.4790000000000001</v>
-      </c>
-      <c r="I21" s="4">
-        <v>1.454</v>
+      <c r="H21" s="5">
+        <v>1479</v>
+      </c>
+      <c r="I21" s="5">
+        <v>1454</v>
       </c>
       <c r="J21" s="4">
         <v>158</v>
@@ -1756,8 +1770,8 @@
       <c r="L21" s="4">
         <v>226</v>
       </c>
-      <c r="M21" s="5">
-        <v>5.891</v>
+      <c r="M21" s="6">
+        <v>5891</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1773,8 +1787,8 @@
       <c r="D22" s="4">
         <v>59</v>
       </c>
-      <c r="E22" s="4">
-        <v>1.306</v>
+      <c r="E22" s="5">
+        <v>1306</v>
       </c>
       <c r="F22" s="4">
         <v>338</v>
@@ -1782,11 +1796,11 @@
       <c r="G22" s="4">
         <v>571</v>
       </c>
-      <c r="H22" s="4">
-        <v>1.389</v>
-      </c>
-      <c r="I22" s="4">
-        <v>1.1299999999999999</v>
+      <c r="H22" s="5">
+        <v>1389</v>
+      </c>
+      <c r="I22" s="5">
+        <v>1130</v>
       </c>
       <c r="J22" s="4">
         <v>139</v>
@@ -1797,8 +1811,8 @@
       <c r="L22" s="4">
         <v>232</v>
       </c>
-      <c r="M22" s="5">
-        <v>5.2169999999999996</v>
+      <c r="M22" s="6">
+        <v>5217</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1812,8 +1826,8 @@
       <c r="D23" s="4">
         <v>145</v>
       </c>
-      <c r="E23" s="4">
-        <v>1.5429999999999999</v>
+      <c r="E23" s="5">
+        <v>1543</v>
       </c>
       <c r="F23" s="4">
         <v>141</v>
@@ -1821,11 +1835,11 @@
       <c r="G23" s="4">
         <v>383</v>
       </c>
-      <c r="H23" s="4">
-        <v>1.4970000000000001</v>
-      </c>
-      <c r="I23" s="4">
-        <v>1.1990000000000001</v>
+      <c r="H23" s="5">
+        <v>1497</v>
+      </c>
+      <c r="I23" s="5">
+        <v>1199</v>
       </c>
       <c r="J23" s="4">
         <v>162</v>
@@ -1836,8 +1850,8 @@
       <c r="L23" s="4">
         <v>200</v>
       </c>
-      <c r="M23" s="5">
-        <v>5.3869999999999996</v>
+      <c r="M23" s="6">
+        <v>5387</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1853,8 +1867,8 @@
       <c r="D24" s="4">
         <v>80</v>
       </c>
-      <c r="E24" s="4">
-        <v>1.1559999999999999</v>
+      <c r="E24" s="5">
+        <v>1156</v>
       </c>
       <c r="F24" s="4">
         <v>125</v>
@@ -1865,8 +1879,8 @@
       <c r="H24" s="4">
         <v>880</v>
       </c>
-      <c r="I24" s="4">
-        <v>1.2210000000000001</v>
+      <c r="I24" s="5">
+        <v>1221</v>
       </c>
       <c r="J24" s="4">
         <v>149</v>
@@ -1877,8 +1891,8 @@
       <c r="L24" s="4">
         <v>201</v>
       </c>
-      <c r="M24" s="5">
-        <v>4.2220000000000004</v>
+      <c r="M24" s="6">
+        <v>4222</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1892,8 +1906,8 @@
       <c r="D25" s="4">
         <v>155</v>
       </c>
-      <c r="E25" s="4">
-        <v>1.407</v>
+      <c r="E25" s="5">
+        <v>1407</v>
       </c>
       <c r="F25" s="4">
         <v>65</v>
@@ -1901,11 +1915,11 @@
       <c r="G25" s="4">
         <v>350</v>
       </c>
-      <c r="H25" s="4">
-        <v>1.2350000000000001</v>
-      </c>
-      <c r="I25" s="4">
-        <v>1.085</v>
+      <c r="H25" s="5">
+        <v>1235</v>
+      </c>
+      <c r="I25" s="5">
+        <v>1085</v>
       </c>
       <c r="J25" s="4">
         <v>118</v>
@@ -1916,8 +1930,8 @@
       <c r="L25" s="4">
         <v>219</v>
       </c>
-      <c r="M25" s="5">
-        <v>4.7460000000000004</v>
+      <c r="M25" s="6">
+        <v>4746</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1945,8 +1959,8 @@
       <c r="H26" s="4">
         <v>597</v>
       </c>
-      <c r="I26" s="4">
-        <v>1.0289999999999999</v>
+      <c r="I26" s="5">
+        <v>1029</v>
       </c>
       <c r="J26" s="4">
         <v>149</v>
@@ -1957,8 +1971,8 @@
       <c r="L26" s="4">
         <v>179</v>
       </c>
-      <c r="M26" s="5">
-        <v>3.2879999999999998</v>
+      <c r="M26" s="6">
+        <v>3288</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1972,8 +1986,8 @@
       <c r="D27" s="4">
         <v>187</v>
       </c>
-      <c r="E27" s="4">
-        <v>1.2030000000000001</v>
+      <c r="E27" s="5">
+        <v>1203</v>
       </c>
       <c r="F27" s="4">
         <v>25</v>
@@ -1996,8 +2010,8 @@
       <c r="L27" s="4">
         <v>186</v>
       </c>
-      <c r="M27" s="5">
-        <v>3.6440000000000001</v>
+      <c r="M27" s="6">
+        <v>3644</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -2013,8 +2027,8 @@
       <c r="D28" s="4">
         <v>201</v>
       </c>
-      <c r="E28" s="4">
-        <v>1.3440000000000001</v>
+      <c r="E28" s="5">
+        <v>1344</v>
       </c>
       <c r="F28" s="4">
         <v>24</v>
@@ -2025,8 +2039,8 @@
       <c r="H28" s="4">
         <v>576</v>
       </c>
-      <c r="I28" s="4">
-        <v>1.234</v>
+      <c r="I28" s="5">
+        <v>1234</v>
       </c>
       <c r="J28" s="4">
         <v>201</v>
@@ -2037,8 +2051,8 @@
       <c r="L28" s="4">
         <v>211</v>
       </c>
-      <c r="M28" s="5">
-        <v>4.1849999999999996</v>
+      <c r="M28" s="6">
+        <v>4185</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2052,8 +2066,8 @@
       <c r="D29" s="4">
         <v>477</v>
       </c>
-      <c r="E29" s="4">
-        <v>1.794</v>
+      <c r="E29" s="5">
+        <v>1794</v>
       </c>
       <c r="F29" s="4">
         <v>17</v>
@@ -2076,54 +2090,54 @@
       <c r="L29" s="4">
         <v>234</v>
       </c>
-      <c r="M29" s="5">
-        <v>5.0069999999999997</v>
+      <c r="M29" s="6">
+        <v>5007</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5">
-        <v>1.1930000000000001</v>
-      </c>
-      <c r="D30" s="5">
-        <v>2.613</v>
-      </c>
-      <c r="E30" s="5">
-        <v>23.108000000000001</v>
-      </c>
-      <c r="F30" s="5">
-        <v>8.6080000000000005</v>
-      </c>
-      <c r="G30" s="5">
-        <v>18.047999999999998</v>
-      </c>
-      <c r="H30" s="5">
-        <v>47.258000000000003</v>
-      </c>
-      <c r="I30" s="5">
-        <v>40.959000000000003</v>
-      </c>
-      <c r="J30" s="5">
-        <v>4.4880000000000004</v>
-      </c>
-      <c r="K30" s="5">
+      <c r="B30" s="7"/>
+      <c r="C30" s="6">
+        <v>1193</v>
+      </c>
+      <c r="D30" s="6">
+        <v>2613</v>
+      </c>
+      <c r="E30" s="6">
+        <v>23108</v>
+      </c>
+      <c r="F30" s="6">
+        <v>8608</v>
+      </c>
+      <c r="G30" s="6">
+        <v>18048</v>
+      </c>
+      <c r="H30" s="6">
+        <v>47258</v>
+      </c>
+      <c r="I30" s="6">
+        <v>40959</v>
+      </c>
+      <c r="J30" s="6">
+        <v>4488</v>
+      </c>
+      <c r="K30" s="8">
         <v>647</v>
       </c>
-      <c r="L30" s="5">
-        <v>3.7909999999999999</v>
-      </c>
-      <c r="M30" s="5">
-        <v>150.71299999999999</v>
+      <c r="L30" s="6">
+        <v>3791</v>
+      </c>
+      <c r="M30" s="6">
+        <v>150713</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="2" t="s">
         <v>2</v>
       </c>
@@ -2180,8 +2194,8 @@
       <c r="G32" s="4">
         <v>378</v>
       </c>
-      <c r="H32" s="4">
-        <v>1.4339999999999999</v>
+      <c r="H32" s="5">
+        <v>1434</v>
       </c>
       <c r="I32" s="4">
         <v>338</v>
@@ -2195,8 +2209,8 @@
       <c r="L32" s="4">
         <v>6</v>
       </c>
-      <c r="M32" s="5">
-        <v>2.1779999999999999</v>
+      <c r="M32" s="6">
+        <v>2178</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2219,8 +2233,8 @@
       <c r="G33" s="4">
         <v>277</v>
       </c>
-      <c r="H33" s="4">
-        <v>1.2629999999999999</v>
+      <c r="H33" s="5">
+        <v>1263</v>
       </c>
       <c r="I33" s="4">
         <v>495</v>
@@ -2234,8 +2248,8 @@
       <c r="L33" s="4">
         <v>8</v>
       </c>
-      <c r="M33" s="5">
-        <v>2.0630000000000002</v>
+      <c r="M33" s="6">
+        <v>2063</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2275,8 +2289,8 @@
       <c r="L34" s="4">
         <v>7</v>
       </c>
-      <c r="M34" s="5">
-        <v>1.66</v>
+      <c r="M34" s="6">
+        <v>1660</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2314,8 +2328,8 @@
       <c r="L35" s="4">
         <v>8</v>
       </c>
-      <c r="M35" s="5">
-        <v>1.472</v>
+      <c r="M35" s="6">
+        <v>1472</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2355,8 +2369,8 @@
       <c r="L36" s="4">
         <v>6</v>
       </c>
-      <c r="M36" s="5">
-        <v>1.619</v>
+      <c r="M36" s="6">
+        <v>1619</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2394,8 +2408,8 @@
       <c r="L37" s="4">
         <v>14</v>
       </c>
-      <c r="M37" s="5">
-        <v>1.61</v>
+      <c r="M37" s="6">
+        <v>1610</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2435,8 +2449,8 @@
       <c r="L38" s="4">
         <v>9</v>
       </c>
-      <c r="M38" s="5">
-        <v>1.6579999999999999</v>
+      <c r="M38" s="6">
+        <v>1658</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2474,8 +2488,8 @@
       <c r="L39" s="4">
         <v>19</v>
       </c>
-      <c r="M39" s="5">
-        <v>1.7370000000000001</v>
+      <c r="M39" s="6">
+        <v>1737</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2515,8 +2529,8 @@
       <c r="L40" s="4">
         <v>14</v>
       </c>
-      <c r="M40" s="5">
-        <v>1.841</v>
+      <c r="M40" s="6">
+        <v>1841</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2554,8 +2568,8 @@
       <c r="L41" s="4">
         <v>10</v>
       </c>
-      <c r="M41" s="5">
-        <v>1.929</v>
+      <c r="M41" s="6">
+        <v>1929</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2595,8 +2609,8 @@
       <c r="L42" s="4">
         <v>10</v>
       </c>
-      <c r="M42" s="5">
-        <v>1.956</v>
+      <c r="M42" s="6">
+        <v>1956</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2634,8 +2648,8 @@
       <c r="L43" s="4">
         <v>14</v>
       </c>
-      <c r="M43" s="5">
-        <v>1.8009999999999999</v>
+      <c r="M43" s="6">
+        <v>1801</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2675,8 +2689,8 @@
       <c r="L44" s="4">
         <v>22</v>
       </c>
-      <c r="M44" s="5">
-        <v>1.7410000000000001</v>
+      <c r="M44" s="6">
+        <v>1741</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2714,8 +2728,8 @@
       <c r="L45" s="4">
         <v>22</v>
       </c>
-      <c r="M45" s="5">
-        <v>1.6619999999999999</v>
+      <c r="M45" s="6">
+        <v>1662</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2755,8 +2769,8 @@
       <c r="L46" s="4">
         <v>18</v>
       </c>
-      <c r="M46" s="5">
-        <v>1.599</v>
+      <c r="M46" s="6">
+        <v>1599</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2794,8 +2808,8 @@
       <c r="L47" s="4">
         <v>29</v>
       </c>
-      <c r="M47" s="5">
-        <v>1.4870000000000001</v>
+      <c r="M47" s="6">
+        <v>1487</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2835,8 +2849,8 @@
       <c r="L48" s="4">
         <v>22</v>
       </c>
-      <c r="M48" s="5">
-        <v>1.341</v>
+      <c r="M48" s="6">
+        <v>1341</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2874,8 +2888,8 @@
       <c r="L49" s="4">
         <v>21</v>
       </c>
-      <c r="M49" s="5">
-        <v>1.2290000000000001</v>
+      <c r="M49" s="6">
+        <v>1229</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2915,8 +2929,8 @@
       <c r="L50" s="4">
         <v>23</v>
       </c>
-      <c r="M50" s="5">
-        <v>1.0149999999999999</v>
+      <c r="M50" s="6">
+        <v>1015</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2954,7 +2968,7 @@
       <c r="L51" s="4">
         <v>10</v>
       </c>
-      <c r="M51" s="5">
+      <c r="M51" s="8">
         <v>988</v>
       </c>
     </row>
@@ -2995,7 +3009,7 @@
       <c r="L52" s="4">
         <v>14</v>
       </c>
-      <c r="M52" s="5">
+      <c r="M52" s="8">
         <v>715</v>
       </c>
     </row>
@@ -3034,7 +3048,7 @@
       <c r="L53" s="4">
         <v>11</v>
       </c>
-      <c r="M53" s="5">
+      <c r="M53" s="8">
         <v>685</v>
       </c>
     </row>
@@ -3075,7 +3089,7 @@
       <c r="L54" s="4">
         <v>13</v>
       </c>
-      <c r="M54" s="5">
+      <c r="M54" s="8">
         <v>781</v>
       </c>
     </row>
@@ -3114,54 +3128,54 @@
       <c r="L55" s="4">
         <v>10</v>
       </c>
-      <c r="M55" s="5">
-        <v>1.004</v>
+      <c r="M55" s="6">
+        <v>1004</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="5">
+      <c r="B56" s="7"/>
+      <c r="C56" s="8">
         <v>370</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="8">
         <v>697</v>
       </c>
-      <c r="E56" s="5">
-        <v>7.1219999999999999</v>
-      </c>
-      <c r="F56" s="5">
-        <v>2.5670000000000002</v>
-      </c>
-      <c r="G56" s="5">
-        <v>4.3490000000000002</v>
-      </c>
-      <c r="H56" s="5">
-        <v>10.65</v>
-      </c>
-      <c r="I56" s="5">
-        <v>8.98</v>
-      </c>
-      <c r="J56" s="5">
+      <c r="E56" s="6">
+        <v>7122</v>
+      </c>
+      <c r="F56" s="6">
+        <v>2567</v>
+      </c>
+      <c r="G56" s="6">
+        <v>4349</v>
+      </c>
+      <c r="H56" s="6">
+        <v>10650</v>
+      </c>
+      <c r="I56" s="6">
+        <v>8980</v>
+      </c>
+      <c r="J56" s="8">
         <v>648</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56" s="8">
         <v>48</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="8">
         <v>340</v>
       </c>
-      <c r="M56" s="5">
-        <v>35.771000000000001</v>
+      <c r="M56" s="6">
+        <v>35771</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="9"/>
       <c r="C57" s="2" t="s">
         <v>2</v>
       </c>
@@ -3233,7 +3247,7 @@
       <c r="L58" s="4">
         <v>11</v>
       </c>
-      <c r="M58" s="5">
+      <c r="M58" s="8">
         <v>890</v>
       </c>
     </row>
@@ -3272,7 +3286,7 @@
       <c r="L59" s="4">
         <v>8</v>
       </c>
-      <c r="M59" s="5">
+      <c r="M59" s="8">
         <v>807</v>
       </c>
     </row>
@@ -3313,7 +3327,7 @@
       <c r="L60" s="4">
         <v>4</v>
       </c>
-      <c r="M60" s="5">
+      <c r="M60" s="8">
         <v>788</v>
       </c>
     </row>
@@ -3352,7 +3366,7 @@
       <c r="L61" s="4">
         <v>11</v>
       </c>
-      <c r="M61" s="5">
+      <c r="M61" s="8">
         <v>689</v>
       </c>
     </row>
@@ -3393,7 +3407,7 @@
       <c r="L62" s="4">
         <v>9</v>
       </c>
-      <c r="M62" s="5">
+      <c r="M62" s="8">
         <v>755</v>
       </c>
     </row>
@@ -3432,7 +3446,7 @@
       <c r="L63" s="4">
         <v>16</v>
       </c>
-      <c r="M63" s="5">
+      <c r="M63" s="8">
         <v>698</v>
       </c>
     </row>
@@ -3473,7 +3487,7 @@
       <c r="L64" s="4">
         <v>13</v>
       </c>
-      <c r="M64" s="5">
+      <c r="M64" s="8">
         <v>763</v>
       </c>
     </row>
@@ -3512,7 +3526,7 @@
       <c r="L65" s="4">
         <v>10</v>
       </c>
-      <c r="M65" s="5">
+      <c r="M65" s="8">
         <v>775</v>
       </c>
     </row>
@@ -3553,7 +3567,7 @@
       <c r="L66" s="4">
         <v>17</v>
       </c>
-      <c r="M66" s="5">
+      <c r="M66" s="8">
         <v>955</v>
       </c>
     </row>
@@ -3592,7 +3606,7 @@
       <c r="L67" s="4">
         <v>10</v>
       </c>
-      <c r="M67" s="5">
+      <c r="M67" s="8">
         <v>901</v>
       </c>
     </row>
@@ -3633,7 +3647,7 @@
       <c r="L68" s="4">
         <v>21</v>
       </c>
-      <c r="M68" s="5">
+      <c r="M68" s="8">
         <v>925</v>
       </c>
     </row>
@@ -3672,7 +3686,7 @@
       <c r="L69" s="4">
         <v>22</v>
       </c>
-      <c r="M69" s="5">
+      <c r="M69" s="8">
         <v>842</v>
       </c>
     </row>
@@ -3713,7 +3727,7 @@
       <c r="L70" s="4">
         <v>20</v>
       </c>
-      <c r="M70" s="5">
+      <c r="M70" s="8">
         <v>900</v>
       </c>
     </row>
@@ -3752,7 +3766,7 @@
       <c r="L71" s="4">
         <v>30</v>
       </c>
-      <c r="M71" s="5">
+      <c r="M71" s="8">
         <v>970</v>
       </c>
     </row>
@@ -3793,7 +3807,7 @@
       <c r="L72" s="4">
         <v>35</v>
       </c>
-      <c r="M72" s="5">
+      <c r="M72" s="8">
         <v>936</v>
       </c>
     </row>
@@ -3832,8 +3846,8 @@
       <c r="L73" s="4">
         <v>31</v>
       </c>
-      <c r="M73" s="5">
-        <v>1.004</v>
+      <c r="M73" s="6">
+        <v>1004</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -3873,7 +3887,7 @@
       <c r="L74" s="4">
         <v>48</v>
       </c>
-      <c r="M74" s="5">
+      <c r="M74" s="8">
         <v>975</v>
       </c>
     </row>
@@ -3912,8 +3926,8 @@
       <c r="L75" s="4">
         <v>29</v>
       </c>
-      <c r="M75" s="5">
-        <v>1.02</v>
+      <c r="M75" s="6">
+        <v>1020</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -3953,7 +3967,7 @@
       <c r="L76" s="4">
         <v>42</v>
       </c>
-      <c r="M76" s="5">
+      <c r="M76" s="8">
         <v>922</v>
       </c>
     </row>
@@ -3992,7 +4006,7 @@
       <c r="L77" s="4">
         <v>23</v>
       </c>
-      <c r="M77" s="5">
+      <c r="M77" s="8">
         <v>867</v>
       </c>
     </row>
@@ -4033,7 +4047,7 @@
       <c r="L78" s="4">
         <v>33</v>
       </c>
-      <c r="M78" s="5">
+      <c r="M78" s="8">
         <v>721</v>
       </c>
     </row>
@@ -4072,7 +4086,7 @@
       <c r="L79" s="4">
         <v>24</v>
       </c>
-      <c r="M79" s="5">
+      <c r="M79" s="8">
         <v>690</v>
       </c>
     </row>
@@ -4113,8 +4127,8 @@
       <c r="L80" s="4">
         <v>43</v>
       </c>
-      <c r="M80" s="5">
-        <v>1.056</v>
+      <c r="M80" s="6">
+        <v>1056</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -4152,54 +4166,54 @@
       <c r="L81" s="4">
         <v>33</v>
       </c>
-      <c r="M81" s="5">
-        <v>1.179</v>
+      <c r="M81" s="6">
+        <v>1179</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="5">
+      <c r="B82" s="7"/>
+      <c r="C82" s="8">
         <v>154</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="8">
         <v>364</v>
       </c>
-      <c r="E82" s="5">
-        <v>4.0759999999999996</v>
-      </c>
-      <c r="F82" s="5">
+      <c r="E82" s="6">
+        <v>4076</v>
+      </c>
+      <c r="F82" s="8">
         <v>970</v>
       </c>
-      <c r="G82" s="5">
-        <v>2.0680000000000001</v>
-      </c>
-      <c r="H82" s="5">
-        <v>6.0670000000000002</v>
-      </c>
-      <c r="I82" s="5">
-        <v>6.0730000000000004</v>
-      </c>
-      <c r="J82" s="5">
+      <c r="G82" s="6">
+        <v>2068</v>
+      </c>
+      <c r="H82" s="6">
+        <v>6067</v>
+      </c>
+      <c r="I82" s="6">
+        <v>6073</v>
+      </c>
+      <c r="J82" s="8">
         <v>604</v>
       </c>
-      <c r="K82" s="5">
+      <c r="K82" s="8">
         <v>109</v>
       </c>
-      <c r="L82" s="5">
+      <c r="L82" s="8">
         <v>543</v>
       </c>
-      <c r="M82" s="5">
-        <v>21.027999999999999</v>
+      <c r="M82" s="6">
+        <v>21028</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="8"/>
+      <c r="B83" s="9"/>
       <c r="C83" s="2" t="s">
         <v>2</v>
       </c>
@@ -4253,11 +4267,11 @@
       <c r="F84" s="4">
         <v>1</v>
       </c>
-      <c r="G84" s="4">
-        <v>1.698</v>
-      </c>
-      <c r="H84" s="4">
-        <v>4.907</v>
+      <c r="G84" s="5">
+        <v>1698</v>
+      </c>
+      <c r="H84" s="5">
+        <v>4907</v>
       </c>
       <c r="I84" s="4">
         <v>969</v>
@@ -4271,8 +4285,8 @@
       <c r="L84" s="4">
         <v>73</v>
       </c>
-      <c r="M84" s="5">
-        <v>7.7249999999999996</v>
+      <c r="M84" s="6">
+        <v>7725</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4292,14 +4306,14 @@
       <c r="F85" s="4">
         <v>1</v>
       </c>
-      <c r="G85" s="4">
-        <v>1.071</v>
-      </c>
-      <c r="H85" s="4">
-        <v>4.6130000000000004</v>
-      </c>
-      <c r="I85" s="4">
-        <v>1.496</v>
+      <c r="G85" s="5">
+        <v>1071</v>
+      </c>
+      <c r="H85" s="5">
+        <v>4613</v>
+      </c>
+      <c r="I85" s="5">
+        <v>1496</v>
       </c>
       <c r="J85" s="4">
         <v>12</v>
@@ -4310,8 +4324,8 @@
       <c r="L85" s="4">
         <v>40</v>
       </c>
-      <c r="M85" s="5">
-        <v>7.2770000000000001</v>
+      <c r="M85" s="6">
+        <v>7277</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4333,14 +4347,14 @@
       <c r="F86" s="4">
         <v>25</v>
       </c>
-      <c r="G86" s="4">
-        <v>1.377</v>
-      </c>
-      <c r="H86" s="4">
-        <v>1.853</v>
-      </c>
-      <c r="I86" s="4">
-        <v>2.2679999999999998</v>
+      <c r="G86" s="5">
+        <v>1377</v>
+      </c>
+      <c r="H86" s="5">
+        <v>1853</v>
+      </c>
+      <c r="I86" s="5">
+        <v>2268</v>
       </c>
       <c r="J86" s="4">
         <v>110</v>
@@ -4351,8 +4365,8 @@
       <c r="L86" s="4">
         <v>34</v>
       </c>
-      <c r="M86" s="5">
-        <v>5.7009999999999996</v>
+      <c r="M86" s="6">
+        <v>5701</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -4375,11 +4389,11 @@
       <c r="G87" s="4">
         <v>965</v>
       </c>
-      <c r="H87" s="4">
-        <v>1.409</v>
-      </c>
-      <c r="I87" s="4">
-        <v>2.8580000000000001</v>
+      <c r="H87" s="5">
+        <v>1409</v>
+      </c>
+      <c r="I87" s="5">
+        <v>2858</v>
       </c>
       <c r="J87" s="4">
         <v>224</v>
@@ -4390,8 +4404,8 @@
       <c r="L87" s="4">
         <v>43</v>
       </c>
-      <c r="M87" s="5">
-        <v>5.6269999999999998</v>
+      <c r="M87" s="6">
+        <v>5627</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -4416,11 +4430,11 @@
       <c r="G88" s="4">
         <v>608</v>
       </c>
-      <c r="H88" s="4">
-        <v>1.915</v>
-      </c>
-      <c r="I88" s="4">
-        <v>2.0779999999999998</v>
+      <c r="H88" s="5">
+        <v>1915</v>
+      </c>
+      <c r="I88" s="5">
+        <v>2078</v>
       </c>
       <c r="J88" s="4">
         <v>213</v>
@@ -4431,8 +4445,8 @@
       <c r="L88" s="4">
         <v>31</v>
       </c>
-      <c r="M88" s="5">
-        <v>5.6749999999999998</v>
+      <c r="M88" s="6">
+        <v>5675</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -4455,11 +4469,11 @@
       <c r="G89" s="4">
         <v>460</v>
       </c>
-      <c r="H89" s="4">
-        <v>1.5780000000000001</v>
-      </c>
-      <c r="I89" s="4">
-        <v>2.62</v>
+      <c r="H89" s="5">
+        <v>1578</v>
+      </c>
+      <c r="I89" s="5">
+        <v>2620</v>
       </c>
       <c r="J89" s="4">
         <v>288</v>
@@ -4470,8 +4484,8 @@
       <c r="L89" s="4">
         <v>73</v>
       </c>
-      <c r="M89" s="5">
-        <v>5.9089999999999998</v>
+      <c r="M89" s="6">
+        <v>5909</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -4496,11 +4510,11 @@
       <c r="G90" s="4">
         <v>610</v>
       </c>
-      <c r="H90" s="4">
-        <v>2.1970000000000001</v>
-      </c>
-      <c r="I90" s="4">
-        <v>2.1040000000000001</v>
+      <c r="H90" s="5">
+        <v>2197</v>
+      </c>
+      <c r="I90" s="5">
+        <v>2104</v>
       </c>
       <c r="J90" s="4">
         <v>259</v>
@@ -4511,8 +4525,8 @@
       <c r="L90" s="4">
         <v>38</v>
       </c>
-      <c r="M90" s="5">
-        <v>6.5419999999999998</v>
+      <c r="M90" s="6">
+        <v>6542</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -4535,11 +4549,11 @@
       <c r="G91" s="4">
         <v>552</v>
       </c>
-      <c r="H91" s="4">
-        <v>1.9410000000000001</v>
-      </c>
-      <c r="I91" s="4">
-        <v>2.194</v>
+      <c r="H91" s="5">
+        <v>1941</v>
+      </c>
+      <c r="I91" s="5">
+        <v>2194</v>
       </c>
       <c r="J91" s="4">
         <v>260</v>
@@ -4550,8 +4564,8 @@
       <c r="L91" s="4">
         <v>91</v>
       </c>
-      <c r="M91" s="5">
-        <v>6.6360000000000001</v>
+      <c r="M91" s="6">
+        <v>6636</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -4573,14 +4587,14 @@
       <c r="F92" s="4">
         <v>654</v>
       </c>
-      <c r="G92" s="4">
-        <v>1.032</v>
-      </c>
-      <c r="H92" s="4">
-        <v>2.383</v>
-      </c>
-      <c r="I92" s="4">
-        <v>1.847</v>
+      <c r="G92" s="5">
+        <v>1032</v>
+      </c>
+      <c r="H92" s="5">
+        <v>2383</v>
+      </c>
+      <c r="I92" s="5">
+        <v>1847</v>
       </c>
       <c r="J92" s="4">
         <v>280</v>
@@ -4591,8 +4605,8 @@
       <c r="L92" s="4">
         <v>65</v>
       </c>
-      <c r="M92" s="5">
-        <v>7.1289999999999996</v>
+      <c r="M92" s="6">
+        <v>7129</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -4606,8 +4620,8 @@
       <c r="D93" s="4">
         <v>35</v>
       </c>
-      <c r="E93" s="4">
-        <v>1.472</v>
+      <c r="E93" s="5">
+        <v>1472</v>
       </c>
       <c r="F93" s="4">
         <v>526</v>
@@ -4615,11 +4629,11 @@
       <c r="G93" s="4">
         <v>843</v>
       </c>
-      <c r="H93" s="4">
-        <v>2.073</v>
-      </c>
-      <c r="I93" s="4">
-        <v>1.9239999999999999</v>
+      <c r="H93" s="5">
+        <v>2073</v>
+      </c>
+      <c r="I93" s="5">
+        <v>1924</v>
       </c>
       <c r="J93" s="4">
         <v>277</v>
@@ -4630,8 +4644,8 @@
       <c r="L93" s="4">
         <v>115</v>
       </c>
-      <c r="M93" s="5">
-        <v>7.3179999999999996</v>
+      <c r="M93" s="6">
+        <v>7318</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -4647,8 +4661,8 @@
       <c r="D94" s="4">
         <v>19</v>
       </c>
-      <c r="E94" s="4">
-        <v>1.212</v>
+      <c r="E94" s="5">
+        <v>1212</v>
       </c>
       <c r="F94" s="4">
         <v>766</v>
@@ -4656,11 +4670,11 @@
       <c r="G94" s="4">
         <v>853</v>
       </c>
-      <c r="H94" s="4">
-        <v>2.169</v>
-      </c>
-      <c r="I94" s="4">
-        <v>1.6519999999999999</v>
+      <c r="H94" s="5">
+        <v>2169</v>
+      </c>
+      <c r="I94" s="5">
+        <v>1652</v>
       </c>
       <c r="J94" s="4">
         <v>212</v>
@@ -4671,8 +4685,8 @@
       <c r="L94" s="4">
         <v>68</v>
       </c>
-      <c r="M94" s="5">
-        <v>6.984</v>
+      <c r="M94" s="6">
+        <v>6984</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -4686,8 +4700,8 @@
       <c r="D95" s="4">
         <v>24</v>
       </c>
-      <c r="E95" s="4">
-        <v>1.77</v>
+      <c r="E95" s="5">
+        <v>1770</v>
       </c>
       <c r="F95" s="4">
         <v>677</v>
@@ -4695,11 +4709,11 @@
       <c r="G95" s="4">
         <v>730</v>
       </c>
-      <c r="H95" s="4">
-        <v>1.8069999999999999</v>
-      </c>
-      <c r="I95" s="4">
-        <v>1.5369999999999999</v>
+      <c r="H95" s="5">
+        <v>1807</v>
+      </c>
+      <c r="I95" s="5">
+        <v>1537</v>
       </c>
       <c r="J95" s="4">
         <v>148</v>
@@ -4710,8 +4724,8 @@
       <c r="L95" s="4">
         <v>92</v>
       </c>
-      <c r="M95" s="5">
-        <v>6.8220000000000001</v>
+      <c r="M95" s="6">
+        <v>6822</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -4727,8 +4741,8 @@
       <c r="D96" s="4">
         <v>10</v>
       </c>
-      <c r="E96" s="4">
-        <v>1.2729999999999999</v>
+      <c r="E96" s="5">
+        <v>1273</v>
       </c>
       <c r="F96" s="4">
         <v>844</v>
@@ -4736,11 +4750,11 @@
       <c r="G96" s="4">
         <v>929</v>
       </c>
-      <c r="H96" s="4">
-        <v>1.7470000000000001</v>
-      </c>
-      <c r="I96" s="4">
-        <v>1.31</v>
+      <c r="H96" s="5">
+        <v>1747</v>
+      </c>
+      <c r="I96" s="5">
+        <v>1310</v>
       </c>
       <c r="J96" s="4">
         <v>159</v>
@@ -4751,8 +4765,8 @@
       <c r="L96" s="4">
         <v>88</v>
       </c>
-      <c r="M96" s="5">
-        <v>6.4039999999999999</v>
+      <c r="M96" s="6">
+        <v>6404</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -4766,8 +4780,8 @@
       <c r="D97" s="4">
         <v>36</v>
       </c>
-      <c r="E97" s="4">
-        <v>1.9330000000000001</v>
+      <c r="E97" s="5">
+        <v>1933</v>
       </c>
       <c r="F97" s="4">
         <v>661</v>
@@ -4775,11 +4789,11 @@
       <c r="G97" s="4">
         <v>763</v>
       </c>
-      <c r="H97" s="4">
-        <v>1.343</v>
-      </c>
-      <c r="I97" s="4">
-        <v>1.1399999999999999</v>
+      <c r="H97" s="5">
+        <v>1343</v>
+      </c>
+      <c r="I97" s="5">
+        <v>1140</v>
       </c>
       <c r="J97" s="4">
         <v>111</v>
@@ -4790,8 +4804,8 @@
       <c r="L97" s="4">
         <v>96</v>
       </c>
-      <c r="M97" s="5">
-        <v>6.1319999999999997</v>
+      <c r="M97" s="6">
+        <v>6132</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4807,8 +4821,8 @@
       <c r="D98" s="4">
         <v>10</v>
       </c>
-      <c r="E98" s="4">
-        <v>1.3660000000000001</v>
+      <c r="E98" s="5">
+        <v>1366</v>
       </c>
       <c r="F98" s="4">
         <v>628</v>
@@ -4816,11 +4830,11 @@
       <c r="G98" s="4">
         <v>744</v>
       </c>
-      <c r="H98" s="4">
-        <v>1.4079999999999999</v>
-      </c>
-      <c r="I98" s="4">
-        <v>1.103</v>
+      <c r="H98" s="5">
+        <v>1408</v>
+      </c>
+      <c r="I98" s="5">
+        <v>1103</v>
       </c>
       <c r="J98" s="4">
         <v>138</v>
@@ -4831,8 +4845,8 @@
       <c r="L98" s="4">
         <v>124</v>
       </c>
-      <c r="M98" s="5">
-        <v>5.5720000000000001</v>
+      <c r="M98" s="6">
+        <v>5572</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -4846,8 +4860,8 @@
       <c r="D99" s="4">
         <v>59</v>
       </c>
-      <c r="E99" s="4">
-        <v>2.0960000000000001</v>
+      <c r="E99" s="5">
+        <v>2096</v>
       </c>
       <c r="F99" s="4">
         <v>360</v>
@@ -4855,8 +4869,8 @@
       <c r="G99" s="4">
         <v>536</v>
       </c>
-      <c r="H99" s="4">
-        <v>1.131</v>
+      <c r="H99" s="5">
+        <v>1131</v>
       </c>
       <c r="I99" s="4">
         <v>859</v>
@@ -4870,8 +4884,8 @@
       <c r="L99" s="4">
         <v>103</v>
       </c>
-      <c r="M99" s="5">
-        <v>5.2969999999999997</v>
+      <c r="M99" s="6">
+        <v>5297</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -4887,8 +4901,8 @@
       <c r="D100" s="4">
         <v>15</v>
       </c>
-      <c r="E100" s="4">
-        <v>1.39</v>
+      <c r="E100" s="5">
+        <v>1390</v>
       </c>
       <c r="F100" s="4">
         <v>315</v>
@@ -4896,8 +4910,8 @@
       <c r="G100" s="4">
         <v>481</v>
       </c>
-      <c r="H100" s="4">
-        <v>1.151</v>
+      <c r="H100" s="5">
+        <v>1151</v>
       </c>
       <c r="I100" s="4">
         <v>920</v>
@@ -4911,8 +4925,8 @@
       <c r="L100" s="4">
         <v>85</v>
       </c>
-      <c r="M100" s="5">
-        <v>4.4660000000000002</v>
+      <c r="M100" s="6">
+        <v>4466</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -4926,8 +4940,8 @@
       <c r="D101" s="4">
         <v>107</v>
       </c>
-      <c r="E101" s="4">
-        <v>2.0649999999999999</v>
+      <c r="E101" s="5">
+        <v>2065</v>
       </c>
       <c r="F101" s="4">
         <v>136</v>
@@ -4950,8 +4964,8 @@
       <c r="L101" s="4">
         <v>99</v>
       </c>
-      <c r="M101" s="5">
-        <v>4.4109999999999996</v>
+      <c r="M101" s="6">
+        <v>4411</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -4967,8 +4981,8 @@
       <c r="D102" s="4">
         <v>27</v>
       </c>
-      <c r="E102" s="4">
-        <v>1.345</v>
+      <c r="E102" s="5">
+        <v>1345</v>
       </c>
       <c r="F102" s="4">
         <v>114</v>
@@ -4991,8 +5005,8 @@
       <c r="L102" s="4">
         <v>121</v>
       </c>
-      <c r="M102" s="5">
-        <v>3.4940000000000002</v>
+      <c r="M102" s="6">
+        <v>3494</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -5006,8 +5020,8 @@
       <c r="D103" s="4">
         <v>111</v>
       </c>
-      <c r="E103" s="4">
-        <v>1.7769999999999999</v>
+      <c r="E103" s="5">
+        <v>1777</v>
       </c>
       <c r="F103" s="4">
         <v>61</v>
@@ -5030,8 +5044,8 @@
       <c r="L103" s="4">
         <v>84</v>
       </c>
-      <c r="M103" s="5">
-        <v>3.359</v>
+      <c r="M103" s="6">
+        <v>3359</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -5071,8 +5085,8 @@
       <c r="L104" s="4">
         <v>52</v>
       </c>
-      <c r="M104" s="5">
-        <v>2.218</v>
+      <c r="M104" s="6">
+        <v>2218</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -5086,8 +5100,8 @@
       <c r="D105" s="4">
         <v>159</v>
       </c>
-      <c r="E105" s="4">
-        <v>1.3919999999999999</v>
+      <c r="E105" s="5">
+        <v>1392</v>
       </c>
       <c r="F105" s="4">
         <v>29</v>
@@ -5110,8 +5124,8 @@
       <c r="L105" s="4">
         <v>63</v>
       </c>
-      <c r="M105" s="5">
-        <v>2.423</v>
+      <c r="M105" s="6">
+        <v>2423</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -5127,8 +5141,8 @@
       <c r="D106" s="4">
         <v>108</v>
       </c>
-      <c r="E106" s="4">
-        <v>1.663</v>
+      <c r="E106" s="5">
+        <v>1663</v>
       </c>
       <c r="F106" s="4">
         <v>23</v>
@@ -5151,8 +5165,8 @@
       <c r="L106" s="4">
         <v>58</v>
       </c>
-      <c r="M106" s="5">
-        <v>2.7930000000000001</v>
+      <c r="M106" s="6">
+        <v>2793</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -5166,8 +5180,8 @@
       <c r="D107" s="4">
         <v>429</v>
       </c>
-      <c r="E107" s="4">
-        <v>1.984</v>
+      <c r="E107" s="5">
+        <v>1984</v>
       </c>
       <c r="F107" s="4">
         <v>24</v>
@@ -5190,54 +5204,54 @@
       <c r="L107" s="4">
         <v>66</v>
       </c>
-      <c r="M107" s="5">
-        <v>3.6509999999999998</v>
+      <c r="M107" s="6">
+        <v>3651</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="5">
-        <v>1.0760000000000001</v>
-      </c>
-      <c r="D108" s="5">
-        <v>1.46</v>
-      </c>
-      <c r="E108" s="5">
-        <v>25.981999999999999</v>
-      </c>
-      <c r="F108" s="5">
-        <v>8.9809999999999999</v>
-      </c>
-      <c r="G108" s="5">
-        <v>15.755000000000001</v>
-      </c>
-      <c r="H108" s="5">
-        <v>38.832000000000001</v>
-      </c>
-      <c r="I108" s="5">
-        <v>32.177999999999997</v>
-      </c>
-      <c r="J108" s="5">
-        <v>3.0990000000000002</v>
-      </c>
-      <c r="K108" s="5">
+      <c r="B108" s="7"/>
+      <c r="C108" s="6">
+        <v>1076</v>
+      </c>
+      <c r="D108" s="6">
+        <v>1460</v>
+      </c>
+      <c r="E108" s="6">
+        <v>25982</v>
+      </c>
+      <c r="F108" s="6">
+        <v>8981</v>
+      </c>
+      <c r="G108" s="6">
+        <v>15755</v>
+      </c>
+      <c r="H108" s="6">
+        <v>38832</v>
+      </c>
+      <c r="I108" s="6">
+        <v>32178</v>
+      </c>
+      <c r="J108" s="6">
+        <v>3099</v>
+      </c>
+      <c r="K108" s="8">
         <v>400</v>
       </c>
-      <c r="L108" s="5">
-        <v>1.802</v>
-      </c>
-      <c r="M108" s="5">
-        <v>129.565</v>
+      <c r="L108" s="6">
+        <v>1802</v>
+      </c>
+      <c r="M108" s="6">
+        <v>129565</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B109" s="8"/>
+      <c r="B109" s="9"/>
       <c r="C109" s="2" t="s">
         <v>2</v>
       </c>
@@ -5309,7 +5323,7 @@
       <c r="L110" s="4">
         <v>1</v>
       </c>
-      <c r="M110" s="5">
+      <c r="M110" s="8">
         <v>524</v>
       </c>
     </row>
@@ -5348,7 +5362,7 @@
       <c r="L111" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M111" s="5">
+      <c r="M111" s="8">
         <v>483</v>
       </c>
     </row>
@@ -5389,7 +5403,7 @@
       <c r="L112" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M112" s="5">
+      <c r="M112" s="8">
         <v>357</v>
       </c>
     </row>
@@ -5428,7 +5442,7 @@
       <c r="L113" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M113" s="5">
+      <c r="M113" s="8">
         <v>337</v>
       </c>
     </row>
@@ -5469,7 +5483,7 @@
       <c r="L114" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M114" s="5">
+      <c r="M114" s="8">
         <v>369</v>
       </c>
     </row>
@@ -5508,7 +5522,7 @@
       <c r="L115" s="4">
         <v>1</v>
       </c>
-      <c r="M115" s="5">
+      <c r="M115" s="8">
         <v>352</v>
       </c>
     </row>
@@ -5549,7 +5563,7 @@
       <c r="L116" s="4">
         <v>1</v>
       </c>
-      <c r="M116" s="5">
+      <c r="M116" s="8">
         <v>374</v>
       </c>
     </row>
@@ -5588,7 +5602,7 @@
       <c r="L117" s="4">
         <v>3</v>
       </c>
-      <c r="M117" s="5">
+      <c r="M117" s="8">
         <v>310</v>
       </c>
     </row>
@@ -5629,7 +5643,7 @@
       <c r="L118" s="4">
         <v>1</v>
       </c>
-      <c r="M118" s="5">
+      <c r="M118" s="8">
         <v>376</v>
       </c>
     </row>
@@ -5668,7 +5682,7 @@
       <c r="L119" s="4">
         <v>2</v>
       </c>
-      <c r="M119" s="5">
+      <c r="M119" s="8">
         <v>340</v>
       </c>
     </row>
@@ -5709,7 +5723,7 @@
       <c r="L120" s="4">
         <v>2</v>
       </c>
-      <c r="M120" s="5">
+      <c r="M120" s="8">
         <v>394</v>
       </c>
     </row>
@@ -5748,7 +5762,7 @@
       <c r="L121" s="4">
         <v>1</v>
       </c>
-      <c r="M121" s="5">
+      <c r="M121" s="8">
         <v>347</v>
       </c>
     </row>
@@ -5789,7 +5803,7 @@
       <c r="L122" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M122" s="5">
+      <c r="M122" s="8">
         <v>385</v>
       </c>
     </row>
@@ -5828,7 +5842,7 @@
       <c r="L123" s="4">
         <v>1</v>
       </c>
-      <c r="M123" s="5">
+      <c r="M123" s="8">
         <v>361</v>
       </c>
     </row>
@@ -5869,7 +5883,7 @@
       <c r="L124" s="4">
         <v>1</v>
       </c>
-      <c r="M124" s="5">
+      <c r="M124" s="8">
         <v>368</v>
       </c>
     </row>
@@ -5908,7 +5922,7 @@
       <c r="L125" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M125" s="5">
+      <c r="M125" s="8">
         <v>361</v>
       </c>
     </row>
@@ -5949,7 +5963,7 @@
       <c r="L126" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M126" s="5">
+      <c r="M126" s="8">
         <v>332</v>
       </c>
     </row>
@@ -5988,7 +6002,7 @@
       <c r="L127" s="4">
         <v>4</v>
       </c>
-      <c r="M127" s="5">
+      <c r="M127" s="8">
         <v>331</v>
       </c>
     </row>
@@ -6029,7 +6043,7 @@
       <c r="L128" s="4">
         <v>1</v>
       </c>
-      <c r="M128" s="5">
+      <c r="M128" s="8">
         <v>245</v>
       </c>
     </row>
@@ -6068,7 +6082,7 @@
       <c r="L129" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M129" s="5">
+      <c r="M129" s="8">
         <v>315</v>
       </c>
     </row>
@@ -6109,7 +6123,7 @@
       <c r="L130" s="4">
         <v>2</v>
       </c>
-      <c r="M130" s="5">
+      <c r="M130" s="8">
         <v>202</v>
       </c>
     </row>
@@ -6148,7 +6162,7 @@
       <c r="L131" s="4">
         <v>2</v>
       </c>
-      <c r="M131" s="5">
+      <c r="M131" s="8">
         <v>216</v>
       </c>
     </row>
@@ -6189,7 +6203,7 @@
       <c r="L132" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M132" s="5">
+      <c r="M132" s="8">
         <v>323</v>
       </c>
     </row>
@@ -6228,7 +6242,7 @@
       <c r="L133" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M133" s="5">
+      <c r="M133" s="8">
         <v>497</v>
       </c>
     </row>
@@ -6236,46 +6250,46 @@
       <c r="A134" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B134" s="6"/>
-      <c r="C134" s="5">
+      <c r="B134" s="7"/>
+      <c r="C134" s="8">
         <v>180</v>
       </c>
-      <c r="D134" s="5">
+      <c r="D134" s="8">
         <v>291</v>
       </c>
-      <c r="E134" s="5">
-        <v>2.9630000000000001</v>
-      </c>
-      <c r="F134" s="5">
-        <v>1.0920000000000001</v>
-      </c>
-      <c r="G134" s="5">
-        <v>1.3129999999999999</v>
-      </c>
-      <c r="H134" s="5">
-        <v>1.631</v>
-      </c>
-      <c r="I134" s="5">
+      <c r="E134" s="6">
+        <v>2963</v>
+      </c>
+      <c r="F134" s="6">
+        <v>1092</v>
+      </c>
+      <c r="G134" s="6">
+        <v>1313</v>
+      </c>
+      <c r="H134" s="6">
+        <v>1631</v>
+      </c>
+      <c r="I134" s="8">
         <v>942</v>
       </c>
-      <c r="J134" s="5">
+      <c r="J134" s="8">
         <v>58</v>
       </c>
-      <c r="K134" s="5">
+      <c r="K134" s="8">
         <v>6</v>
       </c>
-      <c r="L134" s="5">
+      <c r="L134" s="8">
         <v>23</v>
       </c>
-      <c r="M134" s="5">
-        <v>8.4990000000000006</v>
+      <c r="M134" s="6">
+        <v>8499</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B135" s="8"/>
+      <c r="B135" s="9"/>
       <c r="C135" s="2" t="s">
         <v>2</v>
       </c>
@@ -6332,8 +6346,8 @@
       <c r="G136" s="4">
         <v>302</v>
       </c>
-      <c r="H136" s="4">
-        <v>1.2649999999999999</v>
+      <c r="H136" s="5">
+        <v>1265</v>
       </c>
       <c r="I136" s="4">
         <v>241</v>
@@ -6347,8 +6361,8 @@
       <c r="L136" s="4">
         <v>19</v>
       </c>
-      <c r="M136" s="5">
-        <v>1.833</v>
+      <c r="M136" s="6">
+        <v>1833</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -6371,8 +6385,8 @@
       <c r="G137" s="4">
         <v>253</v>
       </c>
-      <c r="H137" s="4">
-        <v>1.0669999999999999</v>
+      <c r="H137" s="5">
+        <v>1067</v>
       </c>
       <c r="I137" s="4">
         <v>376</v>
@@ -6386,8 +6400,8 @@
       <c r="L137" s="4">
         <v>5</v>
       </c>
-      <c r="M137" s="5">
-        <v>1.7050000000000001</v>
+      <c r="M137" s="6">
+        <v>1705</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -6427,8 +6441,8 @@
       <c r="L138" s="4">
         <v>7</v>
       </c>
-      <c r="M138" s="5">
-        <v>1.2589999999999999</v>
+      <c r="M138" s="6">
+        <v>1259</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -6466,8 +6480,8 @@
       <c r="L139" s="4">
         <v>2</v>
       </c>
-      <c r="M139" s="5">
-        <v>1.1859999999999999</v>
+      <c r="M139" s="6">
+        <v>1186</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -6507,8 +6521,8 @@
       <c r="L140" s="4">
         <v>4</v>
       </c>
-      <c r="M140" s="5">
-        <v>1.244</v>
+      <c r="M140" s="6">
+        <v>1244</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -6546,8 +6560,8 @@
       <c r="L141" s="4">
         <v>6</v>
       </c>
-      <c r="M141" s="5">
-        <v>1.2130000000000001</v>
+      <c r="M141" s="6">
+        <v>1213</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -6587,8 +6601,8 @@
       <c r="L142" s="4">
         <v>3</v>
       </c>
-      <c r="M142" s="5">
-        <v>1.375</v>
+      <c r="M142" s="6">
+        <v>1375</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -6626,8 +6640,8 @@
       <c r="L143" s="4">
         <v>13</v>
       </c>
-      <c r="M143" s="5">
-        <v>1.3660000000000001</v>
+      <c r="M143" s="6">
+        <v>1366</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -6667,8 +6681,8 @@
       <c r="L144" s="4">
         <v>10</v>
       </c>
-      <c r="M144" s="5">
-        <v>1.546</v>
+      <c r="M144" s="6">
+        <v>1546</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -6706,8 +6720,8 @@
       <c r="L145" s="4">
         <v>13</v>
       </c>
-      <c r="M145" s="5">
-        <v>1.502</v>
+      <c r="M145" s="6">
+        <v>1502</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -6747,8 +6761,8 @@
       <c r="L146" s="4">
         <v>10</v>
       </c>
-      <c r="M146" s="5">
-        <v>1.5149999999999999</v>
+      <c r="M146" s="6">
+        <v>1515</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
@@ -6786,8 +6800,8 @@
       <c r="L147" s="4">
         <v>15</v>
       </c>
-      <c r="M147" s="5">
-        <v>1.54</v>
+      <c r="M147" s="6">
+        <v>1540</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -6827,8 +6841,8 @@
       <c r="L148" s="4">
         <v>12</v>
       </c>
-      <c r="M148" s="5">
-        <v>1.4330000000000001</v>
+      <c r="M148" s="6">
+        <v>1433</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -6866,8 +6880,8 @@
       <c r="L149" s="4">
         <v>14</v>
       </c>
-      <c r="M149" s="5">
-        <v>1.5169999999999999</v>
+      <c r="M149" s="6">
+        <v>1517</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -6907,8 +6921,8 @@
       <c r="L150" s="4">
         <v>19</v>
       </c>
-      <c r="M150" s="5">
-        <v>1.44</v>
+      <c r="M150" s="6">
+        <v>1440</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -6946,8 +6960,8 @@
       <c r="L151" s="4">
         <v>13</v>
       </c>
-      <c r="M151" s="5">
-        <v>1.3360000000000001</v>
+      <c r="M151" s="6">
+        <v>1336</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -6987,8 +7001,8 @@
       <c r="L152" s="4">
         <v>13</v>
       </c>
-      <c r="M152" s="5">
-        <v>1.24</v>
+      <c r="M152" s="6">
+        <v>1240</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
@@ -7026,8 +7040,8 @@
       <c r="L153" s="4">
         <v>14</v>
       </c>
-      <c r="M153" s="5">
-        <v>1.228</v>
+      <c r="M153" s="6">
+        <v>1228</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -7067,8 +7081,8 @@
       <c r="L154" s="4">
         <v>17</v>
       </c>
-      <c r="M154" s="5">
-        <v>1.0369999999999999</v>
+      <c r="M154" s="6">
+        <v>1037</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -7106,8 +7120,8 @@
       <c r="L155" s="4">
         <v>8</v>
       </c>
-      <c r="M155" s="5">
-        <v>1.056</v>
+      <c r="M155" s="6">
+        <v>1056</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -7147,7 +7161,7 @@
       <c r="L156" s="4">
         <v>6</v>
       </c>
-      <c r="M156" s="5">
+      <c r="M156" s="8">
         <v>690</v>
       </c>
     </row>
@@ -7186,7 +7200,7 @@
       <c r="L157" s="4">
         <v>9</v>
       </c>
-      <c r="M157" s="5">
+      <c r="M157" s="8">
         <v>762</v>
       </c>
     </row>
@@ -7227,7 +7241,7 @@
       <c r="L158" s="4">
         <v>6</v>
       </c>
-      <c r="M158" s="5">
+      <c r="M158" s="8">
         <v>899</v>
       </c>
     </row>
@@ -7266,54 +7280,54 @@
       <c r="L159" s="4">
         <v>9</v>
       </c>
-      <c r="M159" s="5">
-        <v>1.2290000000000001</v>
+      <c r="M159" s="6">
+        <v>1229</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B160" s="6"/>
-      <c r="C160" s="5">
+      <c r="B160" s="7"/>
+      <c r="C160" s="8">
         <v>308</v>
       </c>
-      <c r="D160" s="5">
-        <v>1.024</v>
-      </c>
-      <c r="E160" s="5">
-        <v>7.4059999999999997</v>
-      </c>
-      <c r="F160" s="5">
-        <v>3.306</v>
-      </c>
-      <c r="G160" s="5">
-        <v>3.9569999999999999</v>
-      </c>
-      <c r="H160" s="5">
-        <v>8.1649999999999991</v>
-      </c>
-      <c r="I160" s="5">
-        <v>6.0739999999999998</v>
-      </c>
-      <c r="J160" s="5">
+      <c r="D160" s="6">
+        <v>1024</v>
+      </c>
+      <c r="E160" s="6">
+        <v>7406</v>
+      </c>
+      <c r="F160" s="6">
+        <v>3306</v>
+      </c>
+      <c r="G160" s="6">
+        <v>3957</v>
+      </c>
+      <c r="H160" s="6">
+        <v>8165</v>
+      </c>
+      <c r="I160" s="6">
+        <v>6074</v>
+      </c>
+      <c r="J160" s="8">
         <v>577</v>
       </c>
-      <c r="K160" s="5">
+      <c r="K160" s="8">
         <v>87</v>
       </c>
-      <c r="L160" s="5">
+      <c r="L160" s="8">
         <v>247</v>
       </c>
-      <c r="M160" s="5">
-        <v>31.151</v>
+      <c r="M160" s="6">
+        <v>31151</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
+      <c r="A161" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B161" s="8"/>
+      <c r="B161" s="9"/>
       <c r="C161" s="2" t="s">
         <v>2</v>
       </c>
@@ -7370,8 +7384,8 @@
       <c r="G162" s="4">
         <v>730</v>
       </c>
-      <c r="H162" s="4">
-        <v>2.6880000000000002</v>
+      <c r="H162" s="5">
+        <v>2688</v>
       </c>
       <c r="I162" s="4">
         <v>582</v>
@@ -7385,8 +7399,8 @@
       <c r="L162" s="4">
         <v>32</v>
       </c>
-      <c r="M162" s="5">
-        <v>4.0730000000000004</v>
+      <c r="M162" s="6">
+        <v>4073</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -7409,8 +7423,8 @@
       <c r="G163" s="4">
         <v>407</v>
       </c>
-      <c r="H163" s="4">
-        <v>2.0190000000000001</v>
+      <c r="H163" s="5">
+        <v>2019</v>
       </c>
       <c r="I163" s="4">
         <v>736</v>
@@ -7424,8 +7438,8 @@
       <c r="L163" s="4">
         <v>27</v>
       </c>
-      <c r="M163" s="5">
-        <v>3.2370000000000001</v>
+      <c r="M163" s="6">
+        <v>3237</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -7450,11 +7464,11 @@
       <c r="G164" s="4">
         <v>687</v>
       </c>
-      <c r="H164" s="4">
-        <v>1.242</v>
-      </c>
-      <c r="I164" s="4">
-        <v>1.504</v>
+      <c r="H164" s="5">
+        <v>1242</v>
+      </c>
+      <c r="I164" s="5">
+        <v>1504</v>
       </c>
       <c r="J164" s="4">
         <v>55</v>
@@ -7465,8 +7479,8 @@
       <c r="L164" s="4">
         <v>30</v>
       </c>
-      <c r="M164" s="5">
-        <v>3.5619999999999998</v>
+      <c r="M164" s="6">
+        <v>3562</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -7492,8 +7506,8 @@
       <c r="H165" s="4">
         <v>715</v>
       </c>
-      <c r="I165" s="4">
-        <v>1.57</v>
+      <c r="I165" s="5">
+        <v>1570</v>
       </c>
       <c r="J165" s="4">
         <v>98</v>
@@ -7504,8 +7518,8 @@
       <c r="L165" s="4">
         <v>29</v>
       </c>
-      <c r="M165" s="5">
-        <v>2.8119999999999998</v>
+      <c r="M165" s="6">
+        <v>2812</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
@@ -7530,11 +7544,11 @@
       <c r="G166" s="4">
         <v>367</v>
       </c>
-      <c r="H166" s="4">
-        <v>1.34</v>
-      </c>
-      <c r="I166" s="4">
-        <v>1.423</v>
+      <c r="H166" s="5">
+        <v>1340</v>
+      </c>
+      <c r="I166" s="5">
+        <v>1423</v>
       </c>
       <c r="J166" s="4">
         <v>120</v>
@@ -7545,8 +7559,8 @@
       <c r="L166" s="4">
         <v>29</v>
       </c>
-      <c r="M166" s="5">
-        <v>3.6539999999999999</v>
+      <c r="M166" s="6">
+        <v>3654</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -7572,8 +7586,8 @@
       <c r="H167" s="4">
         <v>947</v>
       </c>
-      <c r="I167" s="4">
-        <v>1.5329999999999999</v>
+      <c r="I167" s="5">
+        <v>1533</v>
       </c>
       <c r="J167" s="4">
         <v>140</v>
@@ -7584,8 +7598,8 @@
       <c r="L167" s="4">
         <v>92</v>
       </c>
-      <c r="M167" s="5">
-        <v>3.2370000000000001</v>
+      <c r="M167" s="6">
+        <v>3237</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
@@ -7610,11 +7624,11 @@
       <c r="G168" s="4">
         <v>372</v>
       </c>
-      <c r="H168" s="4">
-        <v>1.4590000000000001</v>
-      </c>
-      <c r="I168" s="4">
-        <v>1.2829999999999999</v>
+      <c r="H168" s="5">
+        <v>1459</v>
+      </c>
+      <c r="I168" s="5">
+        <v>1283</v>
       </c>
       <c r="J168" s="4">
         <v>99</v>
@@ -7625,8 +7639,8 @@
       <c r="L168" s="4">
         <v>34</v>
       </c>
-      <c r="M168" s="5">
-        <v>3.9369999999999998</v>
+      <c r="M168" s="6">
+        <v>3937</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -7649,11 +7663,11 @@
       <c r="G169" s="4">
         <v>266</v>
       </c>
-      <c r="H169" s="4">
-        <v>1.1619999999999999</v>
-      </c>
-      <c r="I169" s="4">
-        <v>1.3939999999999999</v>
+      <c r="H169" s="5">
+        <v>1162</v>
+      </c>
+      <c r="I169" s="5">
+        <v>1394</v>
       </c>
       <c r="J169" s="4">
         <v>136</v>
@@ -7664,8 +7678,8 @@
       <c r="L169" s="4">
         <v>122</v>
       </c>
-      <c r="M169" s="5">
-        <v>3.69</v>
+      <c r="M169" s="6">
+        <v>3690</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
@@ -7690,11 +7704,11 @@
       <c r="G170" s="4">
         <v>698</v>
       </c>
-      <c r="H170" s="4">
-        <v>1.7150000000000001</v>
-      </c>
-      <c r="I170" s="4">
-        <v>1.1439999999999999</v>
+      <c r="H170" s="5">
+        <v>1715</v>
+      </c>
+      <c r="I170" s="5">
+        <v>1144</v>
       </c>
       <c r="J170" s="4">
         <v>157</v>
@@ -7705,8 +7719,8 @@
       <c r="L170" s="4">
         <v>51</v>
       </c>
-      <c r="M170" s="5">
-        <v>4.5910000000000002</v>
+      <c r="M170" s="6">
+        <v>4591</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -7729,11 +7743,11 @@
       <c r="G171" s="4">
         <v>425</v>
       </c>
-      <c r="H171" s="4">
-        <v>1.38</v>
-      </c>
-      <c r="I171" s="4">
-        <v>1.2250000000000001</v>
+      <c r="H171" s="5">
+        <v>1380</v>
+      </c>
+      <c r="I171" s="5">
+        <v>1225</v>
       </c>
       <c r="J171" s="4">
         <v>167</v>
@@ -7744,8 +7758,8 @@
       <c r="L171" s="4">
         <v>99</v>
       </c>
-      <c r="M171" s="5">
-        <v>4.0819999999999999</v>
+      <c r="M171" s="6">
+        <v>4082</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -7770,11 +7784,11 @@
       <c r="G172" s="4">
         <v>575</v>
       </c>
-      <c r="H172" s="4">
-        <v>1.6140000000000001</v>
-      </c>
-      <c r="I172" s="4">
-        <v>1.046</v>
+      <c r="H172" s="5">
+        <v>1614</v>
+      </c>
+      <c r="I172" s="5">
+        <v>1046</v>
       </c>
       <c r="J172" s="4">
         <v>100</v>
@@ -7785,8 +7799,8 @@
       <c r="L172" s="4">
         <v>65</v>
       </c>
-      <c r="M172" s="5">
-        <v>4.407</v>
+      <c r="M172" s="6">
+        <v>4407</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
@@ -7809,11 +7823,11 @@
       <c r="G173" s="4">
         <v>411</v>
       </c>
-      <c r="H173" s="4">
-        <v>1.2210000000000001</v>
-      </c>
-      <c r="I173" s="4">
-        <v>1.0149999999999999</v>
+      <c r="H173" s="5">
+        <v>1221</v>
+      </c>
+      <c r="I173" s="5">
+        <v>1015</v>
       </c>
       <c r="J173" s="4">
         <v>106</v>
@@ -7824,8 +7838,8 @@
       <c r="L173" s="4">
         <v>70</v>
       </c>
-      <c r="M173" s="5">
-        <v>3.8279999999999998</v>
+      <c r="M173" s="6">
+        <v>3828</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
@@ -7850,8 +7864,8 @@
       <c r="G174" s="4">
         <v>579</v>
       </c>
-      <c r="H174" s="4">
-        <v>1.2310000000000001</v>
+      <c r="H174" s="5">
+        <v>1231</v>
       </c>
       <c r="I174" s="4">
         <v>742</v>
@@ -7865,8 +7879,8 @@
       <c r="L174" s="4">
         <v>72</v>
       </c>
-      <c r="M174" s="5">
-        <v>3.76</v>
+      <c r="M174" s="6">
+        <v>3760</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
@@ -7904,8 +7918,8 @@
       <c r="L175" s="4">
         <v>65</v>
       </c>
-      <c r="M175" s="5">
-        <v>3.1989999999999998</v>
+      <c r="M175" s="6">
+        <v>3199</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
@@ -7945,8 +7959,8 @@
       <c r="L176" s="4">
         <v>54</v>
       </c>
-      <c r="M176" s="5">
-        <v>3.2370000000000001</v>
+      <c r="M176" s="6">
+        <v>3237</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
@@ -7984,8 +7998,8 @@
       <c r="L177" s="4">
         <v>83</v>
       </c>
-      <c r="M177" s="5">
-        <v>2.839</v>
+      <c r="M177" s="6">
+        <v>2839</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
@@ -8025,8 +8039,8 @@
       <c r="L178" s="4">
         <v>77</v>
       </c>
-      <c r="M178" s="5">
-        <v>2.5</v>
+      <c r="M178" s="6">
+        <v>2500</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -8064,8 +8078,8 @@
       <c r="L179" s="4">
         <v>81</v>
       </c>
-      <c r="M179" s="5">
-        <v>2.4129999999999998</v>
+      <c r="M179" s="6">
+        <v>2413</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
@@ -8105,8 +8119,8 @@
       <c r="L180" s="4">
         <v>80</v>
       </c>
-      <c r="M180" s="5">
-        <v>1.925</v>
+      <c r="M180" s="6">
+        <v>1925</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
@@ -8144,8 +8158,8 @@
       <c r="L181" s="4">
         <v>60</v>
       </c>
-      <c r="M181" s="5">
-        <v>1.829</v>
+      <c r="M181" s="6">
+        <v>1829</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
@@ -8185,8 +8199,8 @@
       <c r="L182" s="4">
         <v>52</v>
       </c>
-      <c r="M182" s="5">
-        <v>1.403</v>
+      <c r="M182" s="6">
+        <v>1403</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
@@ -8224,8 +8238,8 @@
       <c r="L183" s="4">
         <v>43</v>
       </c>
-      <c r="M183" s="5">
-        <v>1.4159999999999999</v>
+      <c r="M183" s="6">
+        <v>1416</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
@@ -8265,8 +8279,8 @@
       <c r="L184" s="4">
         <v>41</v>
       </c>
-      <c r="M184" s="5">
-        <v>1.6220000000000001</v>
+      <c r="M184" s="6">
+        <v>1622</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
@@ -8280,8 +8294,8 @@
       <c r="D185" s="4">
         <v>236</v>
       </c>
-      <c r="E185" s="4">
-        <v>1.131</v>
+      <c r="E185" s="5">
+        <v>1131</v>
       </c>
       <c r="F185" s="4">
         <v>7</v>
@@ -8304,54 +8318,54 @@
       <c r="L185" s="4">
         <v>65</v>
       </c>
-      <c r="M185" s="5">
-        <v>2.1909999999999998</v>
+      <c r="M185" s="6">
+        <v>2191</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B186" s="6"/>
-      <c r="C186" s="5">
+      <c r="B186" s="7"/>
+      <c r="C186" s="8">
         <v>307</v>
       </c>
-      <c r="D186" s="5">
+      <c r="D186" s="8">
         <v>829</v>
       </c>
-      <c r="E186" s="5">
-        <v>11.619</v>
-      </c>
-      <c r="F186" s="5">
-        <v>4.3239999999999998</v>
-      </c>
-      <c r="G186" s="5">
-        <v>8.6319999999999997</v>
-      </c>
-      <c r="H186" s="5">
-        <v>24.815999999999999</v>
-      </c>
-      <c r="I186" s="5">
-        <v>19.623999999999999</v>
-      </c>
-      <c r="J186" s="5">
-        <v>1.6259999999999999</v>
-      </c>
-      <c r="K186" s="5">
+      <c r="E186" s="6">
+        <v>11619</v>
+      </c>
+      <c r="F186" s="6">
+        <v>4324</v>
+      </c>
+      <c r="G186" s="6">
+        <v>8632</v>
+      </c>
+      <c r="H186" s="6">
+        <v>24816</v>
+      </c>
+      <c r="I186" s="6">
+        <v>19624</v>
+      </c>
+      <c r="J186" s="6">
+        <v>1626</v>
+      </c>
+      <c r="K186" s="8">
         <v>214</v>
       </c>
-      <c r="L186" s="5">
-        <v>1.4530000000000001</v>
-      </c>
-      <c r="M186" s="5">
-        <v>73.444000000000003</v>
+      <c r="L186" s="6">
+        <v>1453</v>
+      </c>
+      <c r="M186" s="6">
+        <v>73444</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A187" s="8" t="s">
+      <c r="A187" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B187" s="8"/>
+      <c r="B187" s="9"/>
       <c r="C187" s="2" t="s">
         <v>2</v>
       </c>
@@ -8408,8 +8422,8 @@
       <c r="G188" s="4">
         <v>735</v>
       </c>
-      <c r="H188" s="4">
-        <v>3.6960000000000002</v>
+      <c r="H188" s="5">
+        <v>3696</v>
       </c>
       <c r="I188" s="4">
         <v>855</v>
@@ -8423,8 +8437,8 @@
       <c r="L188" s="4">
         <v>21</v>
       </c>
-      <c r="M188" s="5">
-        <v>5.3239999999999998</v>
+      <c r="M188" s="6">
+        <v>5324</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
@@ -8447,11 +8461,11 @@
       <c r="G189" s="4">
         <v>508</v>
       </c>
-      <c r="H189" s="4">
-        <v>3.4209999999999998</v>
-      </c>
-      <c r="I189" s="4">
-        <v>1.194</v>
+      <c r="H189" s="5">
+        <v>3421</v>
+      </c>
+      <c r="I189" s="5">
+        <v>1194</v>
       </c>
       <c r="J189" s="4">
         <v>14</v>
@@ -8462,8 +8476,8 @@
       <c r="L189" s="4">
         <v>16</v>
       </c>
-      <c r="M189" s="5">
-        <v>5.1669999999999998</v>
+      <c r="M189" s="6">
+        <v>5167</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
@@ -8488,11 +8502,11 @@
       <c r="G190" s="4">
         <v>491</v>
       </c>
-      <c r="H190" s="4">
-        <v>1.5429999999999999</v>
-      </c>
-      <c r="I190" s="4">
-        <v>2.2010000000000001</v>
+      <c r="H190" s="5">
+        <v>1543</v>
+      </c>
+      <c r="I190" s="5">
+        <v>2201</v>
       </c>
       <c r="J190" s="4">
         <v>244</v>
@@ -8503,8 +8517,8 @@
       <c r="L190" s="4">
         <v>17</v>
       </c>
-      <c r="M190" s="5">
-        <v>4.5090000000000003</v>
+      <c r="M190" s="6">
+        <v>4509</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
@@ -8530,8 +8544,8 @@
       <c r="H191" s="4">
         <v>901</v>
       </c>
-      <c r="I191" s="4">
-        <v>2.3919999999999999</v>
+      <c r="I191" s="5">
+        <v>2392</v>
       </c>
       <c r="J191" s="4">
         <v>276</v>
@@ -8542,8 +8556,8 @@
       <c r="L191" s="4">
         <v>8</v>
       </c>
-      <c r="M191" s="5">
-        <v>4.0229999999999997</v>
+      <c r="M191" s="6">
+        <v>4023</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
@@ -8568,11 +8582,11 @@
       <c r="G192" s="4">
         <v>241</v>
       </c>
-      <c r="H192" s="4">
-        <v>1.2250000000000001</v>
-      </c>
-      <c r="I192" s="4">
-        <v>1.895</v>
+      <c r="H192" s="5">
+        <v>1225</v>
+      </c>
+      <c r="I192" s="5">
+        <v>1895</v>
       </c>
       <c r="J192" s="4">
         <v>348</v>
@@ -8583,8 +8597,8 @@
       <c r="L192" s="4">
         <v>17</v>
       </c>
-      <c r="M192" s="5">
-        <v>4.1390000000000002</v>
+      <c r="M192" s="6">
+        <v>4139</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
@@ -8610,8 +8624,8 @@
       <c r="H193" s="4">
         <v>851</v>
       </c>
-      <c r="I193" s="4">
-        <v>2.0659999999999998</v>
+      <c r="I193" s="5">
+        <v>2066</v>
       </c>
       <c r="J193" s="4">
         <v>422</v>
@@ -8622,8 +8636,8 @@
       <c r="L193" s="4">
         <v>23</v>
       </c>
-      <c r="M193" s="5">
-        <v>4.056</v>
+      <c r="M193" s="6">
+        <v>4056</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
@@ -8648,11 +8662,11 @@
       <c r="G194" s="4">
         <v>277</v>
       </c>
-      <c r="H194" s="4">
-        <v>1.1850000000000001</v>
-      </c>
-      <c r="I194" s="4">
-        <v>1.7030000000000001</v>
+      <c r="H194" s="5">
+        <v>1185</v>
+      </c>
+      <c r="I194" s="5">
+        <v>1703</v>
       </c>
       <c r="J194" s="4">
         <v>315</v>
@@ -8663,8 +8677,8 @@
       <c r="L194" s="4">
         <v>12</v>
       </c>
-      <c r="M194" s="5">
-        <v>4.2060000000000004</v>
+      <c r="M194" s="6">
+        <v>4206</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
@@ -8687,11 +8701,11 @@
       <c r="G195" s="4">
         <v>261</v>
       </c>
-      <c r="H195" s="4">
-        <v>1.0149999999999999</v>
-      </c>
-      <c r="I195" s="4">
-        <v>1.64</v>
+      <c r="H195" s="5">
+        <v>1015</v>
+      </c>
+      <c r="I195" s="5">
+        <v>1640</v>
       </c>
       <c r="J195" s="4">
         <v>363</v>
@@ -8702,8 +8716,8 @@
       <c r="L195" s="4">
         <v>16</v>
       </c>
-      <c r="M195" s="5">
-        <v>4.1180000000000003</v>
+      <c r="M195" s="6">
+        <v>4118</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
@@ -8728,11 +8742,11 @@
       <c r="G196" s="4">
         <v>433</v>
       </c>
-      <c r="H196" s="4">
-        <v>1.256</v>
-      </c>
-      <c r="I196" s="4">
-        <v>1.4350000000000001</v>
+      <c r="H196" s="5">
+        <v>1256</v>
+      </c>
+      <c r="I196" s="5">
+        <v>1435</v>
       </c>
       <c r="J196" s="4">
         <v>330</v>
@@ -8743,8 +8757,8 @@
       <c r="L196" s="4">
         <v>18</v>
       </c>
-      <c r="M196" s="5">
-        <v>4.4260000000000002</v>
+      <c r="M196" s="6">
+        <v>4426</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
@@ -8767,11 +8781,11 @@
       <c r="G197" s="4">
         <v>444</v>
       </c>
-      <c r="H197" s="4">
-        <v>1.272</v>
-      </c>
-      <c r="I197" s="4">
-        <v>1.462</v>
+      <c r="H197" s="5">
+        <v>1272</v>
+      </c>
+      <c r="I197" s="5">
+        <v>1462</v>
       </c>
       <c r="J197" s="4">
         <v>309</v>
@@ -8782,8 +8796,8 @@
       <c r="L197" s="4">
         <v>13</v>
       </c>
-      <c r="M197" s="5">
-        <v>4.58</v>
+      <c r="M197" s="6">
+        <v>4580</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
@@ -8808,11 +8822,11 @@
       <c r="G198" s="4">
         <v>400</v>
       </c>
-      <c r="H198" s="4">
-        <v>1.08</v>
-      </c>
-      <c r="I198" s="4">
-        <v>1.196</v>
+      <c r="H198" s="5">
+        <v>1080</v>
+      </c>
+      <c r="I198" s="5">
+        <v>1196</v>
       </c>
       <c r="J198" s="4">
         <v>231</v>
@@ -8823,8 +8837,8 @@
       <c r="L198" s="4">
         <v>15</v>
       </c>
-      <c r="M198" s="5">
-        <v>4.1639999999999997</v>
+      <c r="M198" s="6">
+        <v>4164</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
@@ -8847,11 +8861,11 @@
       <c r="G199" s="4">
         <v>434</v>
       </c>
-      <c r="H199" s="4">
-        <v>1.0920000000000001</v>
-      </c>
-      <c r="I199" s="4">
-        <v>1.131</v>
+      <c r="H199" s="5">
+        <v>1092</v>
+      </c>
+      <c r="I199" s="5">
+        <v>1131</v>
       </c>
       <c r="J199" s="4">
         <v>179</v>
@@ -8862,8 +8876,8 @@
       <c r="L199" s="4">
         <v>17</v>
       </c>
-      <c r="M199" s="5">
-        <v>4.1150000000000002</v>
+      <c r="M199" s="6">
+        <v>4115</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
@@ -8903,8 +8917,8 @@
       <c r="L200" s="4">
         <v>14</v>
       </c>
-      <c r="M200" s="5">
-        <v>3.6320000000000001</v>
+      <c r="M200" s="6">
+        <v>3632</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
@@ -8942,8 +8956,8 @@
       <c r="L201" s="4">
         <v>20</v>
       </c>
-      <c r="M201" s="5">
-        <v>3.625</v>
+      <c r="M201" s="6">
+        <v>3625</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
@@ -8983,8 +8997,8 @@
       <c r="L202" s="4">
         <v>26</v>
       </c>
-      <c r="M202" s="5">
-        <v>3.282</v>
+      <c r="M202" s="6">
+        <v>3282</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
@@ -8998,8 +9012,8 @@
       <c r="D203" s="4">
         <v>41</v>
       </c>
-      <c r="E203" s="4">
-        <v>1.294</v>
+      <c r="E203" s="5">
+        <v>1294</v>
       </c>
       <c r="F203" s="4">
         <v>369</v>
@@ -9022,8 +9036,8 @@
       <c r="L203" s="4">
         <v>25</v>
       </c>
-      <c r="M203" s="5">
-        <v>3.508</v>
+      <c r="M203" s="6">
+        <v>3508</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
@@ -9039,8 +9053,8 @@
       <c r="D204" s="4">
         <v>19</v>
       </c>
-      <c r="E204" s="4">
-        <v>1.0589999999999999</v>
+      <c r="E204" s="5">
+        <v>1059</v>
       </c>
       <c r="F204" s="4">
         <v>230</v>
@@ -9063,8 +9077,8 @@
       <c r="L204" s="4">
         <v>19</v>
       </c>
-      <c r="M204" s="5">
-        <v>3.2</v>
+      <c r="M204" s="6">
+        <v>3200</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
@@ -9078,8 +9092,8 @@
       <c r="D205" s="4">
         <v>105</v>
       </c>
-      <c r="E205" s="4">
-        <v>1.5089999999999999</v>
+      <c r="E205" s="5">
+        <v>1509</v>
       </c>
       <c r="F205" s="4">
         <v>182</v>
@@ -9102,8 +9116,8 @@
       <c r="L205" s="4">
         <v>13</v>
       </c>
-      <c r="M205" s="5">
-        <v>3.1749999999999998</v>
+      <c r="M205" s="6">
+        <v>3175</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
@@ -9119,8 +9133,8 @@
       <c r="D206" s="4">
         <v>21</v>
       </c>
-      <c r="E206" s="4">
-        <v>1.159</v>
+      <c r="E206" s="5">
+        <v>1159</v>
       </c>
       <c r="F206" s="4">
         <v>101</v>
@@ -9143,8 +9157,8 @@
       <c r="L206" s="4">
         <v>12</v>
       </c>
-      <c r="M206" s="5">
-        <v>2.6259999999999999</v>
+      <c r="M206" s="6">
+        <v>2626</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
@@ -9158,8 +9172,8 @@
       <c r="D207" s="4">
         <v>148</v>
       </c>
-      <c r="E207" s="4">
-        <v>1.5569999999999999</v>
+      <c r="E207" s="5">
+        <v>1557</v>
       </c>
       <c r="F207" s="4">
         <v>49</v>
@@ -9182,8 +9196,8 @@
       <c r="L207" s="4">
         <v>12</v>
       </c>
-      <c r="M207" s="5">
-        <v>2.718</v>
+      <c r="M207" s="6">
+        <v>2718</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
@@ -9199,8 +9213,8 @@
       <c r="D208" s="4">
         <v>30</v>
       </c>
-      <c r="E208" s="4">
-        <v>1.0169999999999999</v>
+      <c r="E208" s="5">
+        <v>1017</v>
       </c>
       <c r="F208" s="4">
         <v>31</v>
@@ -9223,8 +9237,8 @@
       <c r="L208" s="4">
         <v>13</v>
       </c>
-      <c r="M208" s="5">
-        <v>1.849</v>
+      <c r="M208" s="6">
+        <v>1849</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
@@ -9238,8 +9252,8 @@
       <c r="D209" s="4">
         <v>155</v>
       </c>
-      <c r="E209" s="4">
-        <v>1.286</v>
+      <c r="E209" s="5">
+        <v>1286</v>
       </c>
       <c r="F209" s="4">
         <v>16</v>
@@ -9262,8 +9276,8 @@
       <c r="L209" s="4">
         <v>13</v>
       </c>
-      <c r="M209" s="5">
-        <v>2.1019999999999999</v>
+      <c r="M209" s="6">
+        <v>2102</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
@@ -9279,8 +9293,8 @@
       <c r="D210" s="4">
         <v>127</v>
       </c>
-      <c r="E210" s="4">
-        <v>1.603</v>
+      <c r="E210" s="5">
+        <v>1603</v>
       </c>
       <c r="F210" s="4">
         <v>10</v>
@@ -9303,8 +9317,8 @@
       <c r="L210" s="4">
         <v>15</v>
       </c>
-      <c r="M210" s="5">
-        <v>2.411</v>
+      <c r="M210" s="6">
+        <v>2411</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
@@ -9318,8 +9332,8 @@
       <c r="D211" s="4">
         <v>563</v>
       </c>
-      <c r="E211" s="4">
-        <v>2.1819999999999999</v>
+      <c r="E211" s="5">
+        <v>2182</v>
       </c>
       <c r="F211" s="4">
         <v>2</v>
@@ -9342,54 +9356,54 @@
       <c r="L211" s="4">
         <v>15</v>
       </c>
-      <c r="M211" s="5">
-        <v>3.641</v>
+      <c r="M211" s="6">
+        <v>3641</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B212" s="6"/>
-      <c r="C212" s="5">
+      <c r="B212" s="7"/>
+      <c r="C212" s="8">
         <v>993</v>
       </c>
-      <c r="D212" s="5">
-        <v>1.3620000000000001</v>
-      </c>
-      <c r="E212" s="5">
-        <v>17.440999999999999</v>
-      </c>
-      <c r="F212" s="5">
-        <v>6.0540000000000003</v>
-      </c>
-      <c r="G212" s="5">
-        <v>7.6269999999999998</v>
-      </c>
-      <c r="H212" s="5">
-        <v>24.74</v>
-      </c>
-      <c r="I212" s="5">
-        <v>25.251999999999999</v>
-      </c>
-      <c r="J212" s="5">
-        <v>3.5939999999999999</v>
-      </c>
-      <c r="K212" s="5">
-        <v>1.143</v>
-      </c>
-      <c r="L212" s="5">
+      <c r="D212" s="6">
+        <v>1362</v>
+      </c>
+      <c r="E212" s="6">
+        <v>17441</v>
+      </c>
+      <c r="F212" s="6">
+        <v>6054</v>
+      </c>
+      <c r="G212" s="6">
+        <v>7627</v>
+      </c>
+      <c r="H212" s="6">
+        <v>24740</v>
+      </c>
+      <c r="I212" s="6">
+        <v>25252</v>
+      </c>
+      <c r="J212" s="6">
+        <v>3594</v>
+      </c>
+      <c r="K212" s="6">
+        <v>1143</v>
+      </c>
+      <c r="L212" s="8">
         <v>390</v>
       </c>
-      <c r="M212" s="5">
-        <v>88.596000000000004</v>
+      <c r="M212" s="6">
+        <v>88596</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A213" s="8" t="s">
+      <c r="A213" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B213" s="8"/>
+      <c r="B213" s="9"/>
       <c r="C213" s="2" t="s">
         <v>2</v>
       </c>
@@ -9443,11 +9457,11 @@
       <c r="F214" s="4">
         <v>2</v>
       </c>
-      <c r="G214" s="4">
-        <v>1.8839999999999999</v>
-      </c>
-      <c r="H214" s="4">
-        <v>3.6930000000000001</v>
+      <c r="G214" s="5">
+        <v>1884</v>
+      </c>
+      <c r="H214" s="5">
+        <v>3693</v>
       </c>
       <c r="I214" s="4">
         <v>765</v>
@@ -9461,8 +9475,8 @@
       <c r="L214" s="4">
         <v>52</v>
       </c>
-      <c r="M214" s="5">
-        <v>6.4260000000000002</v>
+      <c r="M214" s="6">
+        <v>6426</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
@@ -9482,14 +9496,14 @@
       <c r="F215" s="4">
         <v>2</v>
       </c>
-      <c r="G215" s="4">
-        <v>1.3069999999999999</v>
-      </c>
-      <c r="H215" s="4">
-        <v>3.4769999999999999</v>
-      </c>
-      <c r="I215" s="4">
-        <v>1.1819999999999999</v>
+      <c r="G215" s="5">
+        <v>1307</v>
+      </c>
+      <c r="H215" s="5">
+        <v>3477</v>
+      </c>
+      <c r="I215" s="5">
+        <v>1182</v>
       </c>
       <c r="J215" s="4">
         <v>6</v>
@@ -9500,8 +9514,8 @@
       <c r="L215" s="4">
         <v>13</v>
       </c>
-      <c r="M215" s="5">
-        <v>6.02</v>
+      <c r="M215" s="6">
+        <v>6020</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
@@ -9523,14 +9537,14 @@
       <c r="F216" s="4">
         <v>28</v>
       </c>
-      <c r="G216" s="4">
-        <v>1.5129999999999999</v>
-      </c>
-      <c r="H216" s="4">
-        <v>1.579</v>
-      </c>
-      <c r="I216" s="4">
-        <v>1.849</v>
+      <c r="G216" s="5">
+        <v>1513</v>
+      </c>
+      <c r="H216" s="5">
+        <v>1579</v>
+      </c>
+      <c r="I216" s="5">
+        <v>1849</v>
       </c>
       <c r="J216" s="4">
         <v>97</v>
@@ -9541,8 +9555,8 @@
       <c r="L216" s="4">
         <v>23</v>
       </c>
-      <c r="M216" s="5">
-        <v>5.1310000000000002</v>
+      <c r="M216" s="6">
+        <v>5131</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
@@ -9562,14 +9576,14 @@
       <c r="F217" s="4">
         <v>36</v>
       </c>
-      <c r="G217" s="4">
-        <v>1.083</v>
-      </c>
-      <c r="H217" s="4">
-        <v>1.0720000000000001</v>
-      </c>
-      <c r="I217" s="4">
-        <v>2.141</v>
+      <c r="G217" s="5">
+        <v>1083</v>
+      </c>
+      <c r="H217" s="5">
+        <v>1072</v>
+      </c>
+      <c r="I217" s="5">
+        <v>2141</v>
       </c>
       <c r="J217" s="4">
         <v>119</v>
@@ -9580,8 +9594,8 @@
       <c r="L217" s="4">
         <v>16</v>
       </c>
-      <c r="M217" s="5">
-        <v>4.625</v>
+      <c r="M217" s="6">
+        <v>4625</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
@@ -9606,11 +9620,11 @@
       <c r="G218" s="4">
         <v>703</v>
       </c>
-      <c r="H218" s="4">
-        <v>1.681</v>
-      </c>
-      <c r="I218" s="4">
-        <v>1.7629999999999999</v>
+      <c r="H218" s="5">
+        <v>1681</v>
+      </c>
+      <c r="I218" s="5">
+        <v>1763</v>
       </c>
       <c r="J218" s="4">
         <v>166</v>
@@ -9621,8 +9635,8 @@
       <c r="L218" s="4">
         <v>22</v>
       </c>
-      <c r="M218" s="5">
-        <v>5.3460000000000001</v>
+      <c r="M218" s="6">
+        <v>5346</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
@@ -9645,11 +9659,11 @@
       <c r="G219" s="4">
         <v>483</v>
       </c>
-      <c r="H219" s="4">
-        <v>1.288</v>
-      </c>
-      <c r="I219" s="4">
-        <v>1.8560000000000001</v>
+      <c r="H219" s="5">
+        <v>1288</v>
+      </c>
+      <c r="I219" s="5">
+        <v>1856</v>
       </c>
       <c r="J219" s="4">
         <v>185</v>
@@ -9660,8 +9674,8 @@
       <c r="L219" s="4">
         <v>41</v>
       </c>
-      <c r="M219" s="5">
-        <v>4.9450000000000003</v>
+      <c r="M219" s="6">
+        <v>4945</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
@@ -9686,11 +9700,11 @@
       <c r="G220" s="4">
         <v>602</v>
       </c>
-      <c r="H220" s="4">
-        <v>1.65</v>
-      </c>
-      <c r="I220" s="4">
-        <v>1.508</v>
+      <c r="H220" s="5">
+        <v>1650</v>
+      </c>
+      <c r="I220" s="5">
+        <v>1508</v>
       </c>
       <c r="J220" s="4">
         <v>184</v>
@@ -9701,8 +9715,8 @@
       <c r="L220" s="4">
         <v>22</v>
       </c>
-      <c r="M220" s="5">
-        <v>5.3959999999999999</v>
+      <c r="M220" s="6">
+        <v>5396</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
@@ -9725,11 +9739,11 @@
       <c r="G221" s="4">
         <v>578</v>
       </c>
-      <c r="H221" s="4">
-        <v>1.466</v>
-      </c>
-      <c r="I221" s="4">
-        <v>1.391</v>
+      <c r="H221" s="5">
+        <v>1466</v>
+      </c>
+      <c r="I221" s="5">
+        <v>1391</v>
       </c>
       <c r="J221" s="4">
         <v>153</v>
@@ -9740,8 +9754,8 @@
       <c r="L221" s="4">
         <v>34</v>
       </c>
-      <c r="M221" s="5">
-        <v>5.2939999999999996</v>
+      <c r="M221" s="6">
+        <v>5294</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
@@ -9766,11 +9780,11 @@
       <c r="G222" s="4">
         <v>970</v>
       </c>
-      <c r="H222" s="4">
-        <v>1.6739999999999999</v>
-      </c>
-      <c r="I222" s="4">
-        <v>1.0469999999999999</v>
+      <c r="H222" s="5">
+        <v>1674</v>
+      </c>
+      <c r="I222" s="5">
+        <v>1047</v>
       </c>
       <c r="J222" s="4">
         <v>183</v>
@@ -9781,8 +9795,8 @@
       <c r="L222" s="4">
         <v>40</v>
       </c>
-      <c r="M222" s="5">
-        <v>5.718</v>
+      <c r="M222" s="6">
+        <v>5718</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
@@ -9796,8 +9810,8 @@
       <c r="D223" s="4">
         <v>52</v>
       </c>
-      <c r="E223" s="4">
-        <v>1.327</v>
+      <c r="E223" s="5">
+        <v>1327</v>
       </c>
       <c r="F223" s="4">
         <v>513</v>
@@ -9805,11 +9819,11 @@
       <c r="G223" s="4">
         <v>883</v>
       </c>
-      <c r="H223" s="4">
-        <v>1.3779999999999999</v>
-      </c>
-      <c r="I223" s="4">
-        <v>1.016</v>
+      <c r="H223" s="5">
+        <v>1378</v>
+      </c>
+      <c r="I223" s="5">
+        <v>1016</v>
       </c>
       <c r="J223" s="4">
         <v>140</v>
@@ -9820,8 +9834,8 @@
       <c r="L223" s="4">
         <v>35</v>
       </c>
-      <c r="M223" s="5">
-        <v>5.399</v>
+      <c r="M223" s="6">
+        <v>5399</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
@@ -9837,8 +9851,8 @@
       <c r="D224" s="4">
         <v>17</v>
       </c>
-      <c r="E224" s="4">
-        <v>1.0589999999999999</v>
+      <c r="E224" s="5">
+        <v>1059</v>
       </c>
       <c r="F224" s="4">
         <v>985</v>
@@ -9846,8 +9860,8 @@
       <c r="G224" s="4">
         <v>789</v>
       </c>
-      <c r="H224" s="4">
-        <v>1.341</v>
+      <c r="H224" s="5">
+        <v>1341</v>
       </c>
       <c r="I224" s="4">
         <v>965</v>
@@ -9861,8 +9875,8 @@
       <c r="L224" s="4">
         <v>39</v>
       </c>
-      <c r="M224" s="5">
-        <v>5.3419999999999996</v>
+      <c r="M224" s="6">
+        <v>5342</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
@@ -9876,8 +9890,8 @@
       <c r="D225" s="4">
         <v>47</v>
       </c>
-      <c r="E225" s="4">
-        <v>1.66</v>
+      <c r="E225" s="5">
+        <v>1660</v>
       </c>
       <c r="F225" s="4">
         <v>599</v>
@@ -9885,8 +9899,8 @@
       <c r="G225" s="4">
         <v>794</v>
       </c>
-      <c r="H225" s="4">
-        <v>1.1259999999999999</v>
+      <c r="H225" s="5">
+        <v>1126</v>
       </c>
       <c r="I225" s="4">
         <v>696</v>
@@ -9900,8 +9914,8 @@
       <c r="L225" s="4">
         <v>42</v>
       </c>
-      <c r="M225" s="5">
-        <v>5.0990000000000002</v>
+      <c r="M225" s="6">
+        <v>5099</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
@@ -9917,17 +9931,17 @@
       <c r="D226" s="4">
         <v>15</v>
       </c>
-      <c r="E226" s="4">
-        <v>1.321</v>
-      </c>
-      <c r="F226" s="4">
-        <v>1.0249999999999999</v>
+      <c r="E226" s="5">
+        <v>1321</v>
+      </c>
+      <c r="F226" s="5">
+        <v>1025</v>
       </c>
       <c r="G226" s="4">
         <v>875</v>
       </c>
-      <c r="H226" s="4">
-        <v>1.119</v>
+      <c r="H226" s="5">
+        <v>1119</v>
       </c>
       <c r="I226" s="4">
         <v>714</v>
@@ -9941,8 +9955,8 @@
       <c r="L226" s="4">
         <v>40</v>
       </c>
-      <c r="M226" s="5">
-        <v>5.2169999999999996</v>
+      <c r="M226" s="6">
+        <v>5217</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
@@ -9956,8 +9970,8 @@
       <c r="D227" s="4">
         <v>67</v>
       </c>
-      <c r="E227" s="4">
-        <v>2.024</v>
+      <c r="E227" s="5">
+        <v>2024</v>
       </c>
       <c r="F227" s="4">
         <v>606</v>
@@ -9980,8 +9994,8 @@
       <c r="L227" s="4">
         <v>48</v>
       </c>
-      <c r="M227" s="5">
-        <v>5.0730000000000004</v>
+      <c r="M227" s="6">
+        <v>5073</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
@@ -9997,8 +10011,8 @@
       <c r="D228" s="4">
         <v>26</v>
       </c>
-      <c r="E228" s="4">
-        <v>1.7030000000000001</v>
+      <c r="E228" s="5">
+        <v>1703</v>
       </c>
       <c r="F228" s="4">
         <v>855</v>
@@ -10006,8 +10020,8 @@
       <c r="G228" s="4">
         <v>727</v>
       </c>
-      <c r="H228" s="4">
-        <v>1.0629999999999999</v>
+      <c r="H228" s="5">
+        <v>1063</v>
       </c>
       <c r="I228" s="4">
         <v>650</v>
@@ -10021,8 +10035,8 @@
       <c r="L228" s="4">
         <v>56</v>
       </c>
-      <c r="M228" s="5">
-        <v>5.1840000000000002</v>
+      <c r="M228" s="6">
+        <v>5184</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
@@ -10036,8 +10050,8 @@
       <c r="D229" s="4">
         <v>105</v>
       </c>
-      <c r="E229" s="4">
-        <v>2.6909999999999998</v>
+      <c r="E229" s="5">
+        <v>2691</v>
       </c>
       <c r="F229" s="4">
         <v>439</v>
@@ -10060,8 +10074,8 @@
       <c r="L229" s="4">
         <v>62</v>
       </c>
-      <c r="M229" s="5">
-        <v>5.1749999999999998</v>
+      <c r="M229" s="6">
+        <v>5175</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
@@ -10077,8 +10091,8 @@
       <c r="D230" s="4">
         <v>33</v>
       </c>
-      <c r="E230" s="4">
-        <v>2.198</v>
+      <c r="E230" s="5">
+        <v>2198</v>
       </c>
       <c r="F230" s="4">
         <v>513</v>
@@ -10101,8 +10115,8 @@
       <c r="L230" s="4">
         <v>70</v>
       </c>
-      <c r="M230" s="5">
-        <v>4.8280000000000003</v>
+      <c r="M230" s="6">
+        <v>4828</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
@@ -10116,8 +10130,8 @@
       <c r="D231" s="4">
         <v>177</v>
       </c>
-      <c r="E231" s="4">
-        <v>2.8370000000000002</v>
+      <c r="E231" s="5">
+        <v>2837</v>
       </c>
       <c r="F231" s="4">
         <v>219</v>
@@ -10140,8 +10154,8 @@
       <c r="L231" s="4">
         <v>53</v>
       </c>
-      <c r="M231" s="5">
-        <v>4.66</v>
+      <c r="M231" s="6">
+        <v>4660</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
@@ -10157,8 +10171,8 @@
       <c r="D232" s="4">
         <v>69</v>
       </c>
-      <c r="E232" s="4">
-        <v>2.0790000000000002</v>
+      <c r="E232" s="5">
+        <v>2079</v>
       </c>
       <c r="F232" s="4">
         <v>245</v>
@@ -10181,8 +10195,8 @@
       <c r="L232" s="4">
         <v>49</v>
       </c>
-      <c r="M232" s="5">
-        <v>3.891</v>
+      <c r="M232" s="6">
+        <v>3891</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
@@ -10196,8 +10210,8 @@
       <c r="D233" s="4">
         <v>197</v>
       </c>
-      <c r="E233" s="4">
-        <v>2.4249999999999998</v>
+      <c r="E233" s="5">
+        <v>2425</v>
       </c>
       <c r="F233" s="4">
         <v>68</v>
@@ -10220,8 +10234,8 @@
       <c r="L233" s="4">
         <v>54</v>
       </c>
-      <c r="M233" s="5">
-        <v>3.7850000000000001</v>
+      <c r="M233" s="6">
+        <v>3785</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
@@ -10237,8 +10251,8 @@
       <c r="D234" s="4">
         <v>71</v>
       </c>
-      <c r="E234" s="4">
-        <v>1.6719999999999999</v>
+      <c r="E234" s="5">
+        <v>1672</v>
       </c>
       <c r="F234" s="4">
         <v>77</v>
@@ -10261,8 +10275,8 @@
       <c r="L234" s="4">
         <v>46</v>
       </c>
-      <c r="M234" s="5">
-        <v>2.6709999999999998</v>
+      <c r="M234" s="6">
+        <v>2671</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
@@ -10276,8 +10290,8 @@
       <c r="D235" s="4">
         <v>266</v>
       </c>
-      <c r="E235" s="4">
-        <v>1.86</v>
+      <c r="E235" s="5">
+        <v>1860</v>
       </c>
       <c r="F235" s="4">
         <v>22</v>
@@ -10300,8 +10314,8 @@
       <c r="L235" s="4">
         <v>44</v>
       </c>
-      <c r="M235" s="5">
-        <v>2.863</v>
+      <c r="M235" s="6">
+        <v>2863</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
@@ -10317,8 +10331,8 @@
       <c r="D236" s="4">
         <v>328</v>
       </c>
-      <c r="E236" s="4">
-        <v>2.5249999999999999</v>
+      <c r="E236" s="5">
+        <v>2525</v>
       </c>
       <c r="F236" s="4">
         <v>47</v>
@@ -10341,8 +10355,8 @@
       <c r="L236" s="4">
         <v>47</v>
       </c>
-      <c r="M236" s="5">
-        <v>3.7120000000000002</v>
+      <c r="M236" s="6">
+        <v>3712</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
@@ -10356,8 +10370,8 @@
       <c r="D237" s="4">
         <v>942</v>
       </c>
-      <c r="E237" s="4">
-        <v>2.6560000000000001</v>
+      <c r="E237" s="5">
+        <v>2656</v>
       </c>
       <c r="F237" s="4">
         <v>8</v>
@@ -10380,54 +10394,54 @@
       <c r="L237" s="4">
         <v>56</v>
       </c>
-      <c r="M237" s="5">
-        <v>4.8639999999999999</v>
+      <c r="M237" s="6">
+        <v>4864</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B238" s="6"/>
-      <c r="C238" s="5">
-        <v>1.9730000000000001</v>
-      </c>
-      <c r="D238" s="5">
-        <v>2.8</v>
-      </c>
-      <c r="E238" s="5">
-        <v>32.418999999999997</v>
-      </c>
-      <c r="F238" s="5">
-        <v>10.621</v>
-      </c>
-      <c r="G238" s="5">
-        <v>16.445</v>
-      </c>
-      <c r="H238" s="5">
-        <v>28.152000000000001</v>
-      </c>
-      <c r="I238" s="5">
-        <v>21.123000000000001</v>
-      </c>
-      <c r="J238" s="5">
-        <v>1.897</v>
-      </c>
-      <c r="K238" s="5">
+      <c r="B238" s="7"/>
+      <c r="C238" s="6">
+        <v>1973</v>
+      </c>
+      <c r="D238" s="6">
+        <v>2800</v>
+      </c>
+      <c r="E238" s="6">
+        <v>32419</v>
+      </c>
+      <c r="F238" s="6">
+        <v>10621</v>
+      </c>
+      <c r="G238" s="6">
+        <v>16445</v>
+      </c>
+      <c r="H238" s="6">
+        <v>28152</v>
+      </c>
+      <c r="I238" s="6">
+        <v>21123</v>
+      </c>
+      <c r="J238" s="6">
+        <v>1897</v>
+      </c>
+      <c r="K238" s="8">
         <v>230</v>
       </c>
-      <c r="L238" s="5">
-        <v>1.004</v>
-      </c>
-      <c r="M238" s="5">
-        <v>116.664</v>
+      <c r="L238" s="6">
+        <v>1004</v>
+      </c>
+      <c r="M238" s="6">
+        <v>116664</v>
       </c>
     </row>
     <row r="239" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A239" s="8" t="s">
+      <c r="A239" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B239" s="8"/>
+      <c r="B239" s="9"/>
       <c r="C239" s="2" t="s">
         <v>2</v>
       </c>
@@ -10484,8 +10498,8 @@
       <c r="G240" s="4">
         <v>516</v>
       </c>
-      <c r="H240" s="4">
-        <v>1.5329999999999999</v>
+      <c r="H240" s="5">
+        <v>1533</v>
       </c>
       <c r="I240" s="4">
         <v>309</v>
@@ -10499,8 +10513,8 @@
       <c r="L240" s="4">
         <v>18</v>
       </c>
-      <c r="M240" s="5">
-        <v>2.39</v>
+      <c r="M240" s="6">
+        <v>2390</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
@@ -10523,8 +10537,8 @@
       <c r="G241" s="4">
         <v>339</v>
       </c>
-      <c r="H241" s="4">
-        <v>1.405</v>
+      <c r="H241" s="5">
+        <v>1405</v>
       </c>
       <c r="I241" s="4">
         <v>498</v>
@@ -10538,8 +10552,8 @@
       <c r="L241" s="4">
         <v>5</v>
       </c>
-      <c r="M241" s="5">
-        <v>2.2719999999999998</v>
+      <c r="M241" s="6">
+        <v>2272</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
@@ -10579,8 +10593,8 @@
       <c r="L242" s="4">
         <v>6</v>
       </c>
-      <c r="M242" s="5">
-        <v>1.7769999999999999</v>
+      <c r="M242" s="6">
+        <v>1777</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
@@ -10618,8 +10632,8 @@
       <c r="L243" s="4">
         <v>8</v>
       </c>
-      <c r="M243" s="5">
-        <v>1.673</v>
+      <c r="M243" s="6">
+        <v>1673</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.25">
@@ -10659,8 +10673,8 @@
       <c r="L244" s="4">
         <v>13</v>
       </c>
-      <c r="M244" s="5">
-        <v>1.732</v>
+      <c r="M244" s="6">
+        <v>1732</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
@@ -10698,8 +10712,8 @@
       <c r="L245" s="4">
         <v>15</v>
       </c>
-      <c r="M245" s="5">
-        <v>1.6859999999999999</v>
+      <c r="M245" s="6">
+        <v>1686</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
@@ -10739,8 +10753,8 @@
       <c r="L246" s="4">
         <v>13</v>
       </c>
-      <c r="M246" s="5">
-        <v>1.8540000000000001</v>
+      <c r="M246" s="6">
+        <v>1854</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.25">
@@ -10778,8 +10792,8 @@
       <c r="L247" s="4">
         <v>26</v>
       </c>
-      <c r="M247" s="5">
-        <v>2.1160000000000001</v>
+      <c r="M247" s="6">
+        <v>2116</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
@@ -10819,8 +10833,8 @@
       <c r="L248" s="4">
         <v>13</v>
       </c>
-      <c r="M248" s="5">
-        <v>2.1560000000000001</v>
+      <c r="M248" s="6">
+        <v>2156</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
@@ -10858,8 +10872,8 @@
       <c r="L249" s="4">
         <v>27</v>
       </c>
-      <c r="M249" s="5">
-        <v>2.21</v>
+      <c r="M249" s="6">
+        <v>2210</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
@@ -10899,8 +10913,8 @@
       <c r="L250" s="4">
         <v>16</v>
       </c>
-      <c r="M250" s="5">
-        <v>2.2109999999999999</v>
+      <c r="M250" s="6">
+        <v>2211</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
@@ -10938,8 +10952,8 @@
       <c r="L251" s="4">
         <v>20</v>
       </c>
-      <c r="M251" s="5">
-        <v>2.294</v>
+      <c r="M251" s="6">
+        <v>2294</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
@@ -10979,8 +10993,8 @@
       <c r="L252" s="4">
         <v>21</v>
       </c>
-      <c r="M252" s="5">
-        <v>2.1800000000000002</v>
+      <c r="M252" s="6">
+        <v>2180</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
@@ -11018,8 +11032,8 @@
       <c r="L253" s="4">
         <v>32</v>
       </c>
-      <c r="M253" s="5">
-        <v>2.1040000000000001</v>
+      <c r="M253" s="6">
+        <v>2104</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
@@ -11059,8 +11073,8 @@
       <c r="L254" s="4">
         <v>38</v>
       </c>
-      <c r="M254" s="5">
-        <v>1.9610000000000001</v>
+      <c r="M254" s="6">
+        <v>1961</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.25">
@@ -11098,8 +11112,8 @@
       <c r="L255" s="4">
         <v>31</v>
       </c>
-      <c r="M255" s="5">
-        <v>1.8620000000000001</v>
+      <c r="M255" s="6">
+        <v>1862</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
@@ -11139,8 +11153,8 @@
       <c r="L256" s="4">
         <v>36</v>
       </c>
-      <c r="M256" s="5">
-        <v>1.7090000000000001</v>
+      <c r="M256" s="6">
+        <v>1709</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
@@ -11178,8 +11192,8 @@
       <c r="L257" s="4">
         <v>41</v>
       </c>
-      <c r="M257" s="5">
-        <v>1.61</v>
+      <c r="M257" s="6">
+        <v>1610</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
@@ -11219,8 +11233,8 @@
       <c r="L258" s="4">
         <v>30</v>
       </c>
-      <c r="M258" s="5">
-        <v>1.341</v>
+      <c r="M258" s="6">
+        <v>1341</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
@@ -11258,8 +11272,8 @@
       <c r="L259" s="4">
         <v>14</v>
       </c>
-      <c r="M259" s="5">
-        <v>1.3089999999999999</v>
+      <c r="M259" s="6">
+        <v>1309</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
@@ -11299,7 +11313,7 @@
       <c r="L260" s="4">
         <v>18</v>
       </c>
-      <c r="M260" s="5">
+      <c r="M260" s="8">
         <v>886</v>
       </c>
     </row>
@@ -11338,7 +11352,7 @@
       <c r="L261" s="4">
         <v>16</v>
       </c>
-      <c r="M261" s="5">
+      <c r="M261" s="8">
         <v>938</v>
       </c>
     </row>
@@ -11379,8 +11393,8 @@
       <c r="L262" s="4">
         <v>13</v>
       </c>
-      <c r="M262" s="5">
-        <v>1.01</v>
+      <c r="M262" s="6">
+        <v>1010</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
@@ -11418,54 +11432,54 @@
       <c r="L263" s="4">
         <v>8</v>
       </c>
-      <c r="M263" s="5">
-        <v>1.323</v>
+      <c r="M263" s="6">
+        <v>1323</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B264" s="6"/>
-      <c r="C264" s="5">
+      <c r="B264" s="7"/>
+      <c r="C264" s="8">
         <v>407</v>
       </c>
-      <c r="D264" s="5">
-        <v>1.103</v>
-      </c>
-      <c r="E264" s="5">
-        <v>9.3780000000000001</v>
-      </c>
-      <c r="F264" s="5">
-        <v>3</v>
-      </c>
-      <c r="G264" s="5">
-        <v>5.306</v>
-      </c>
-      <c r="H264" s="5">
-        <v>12.561999999999999</v>
-      </c>
-      <c r="I264" s="5">
-        <v>9.4589999999999996</v>
-      </c>
-      <c r="J264" s="5">
+      <c r="D264" s="6">
+        <v>1103</v>
+      </c>
+      <c r="E264" s="6">
+        <v>9378</v>
+      </c>
+      <c r="F264" s="6">
+        <v>3000</v>
+      </c>
+      <c r="G264" s="6">
+        <v>5306</v>
+      </c>
+      <c r="H264" s="6">
+        <v>12562</v>
+      </c>
+      <c r="I264" s="6">
+        <v>9459</v>
+      </c>
+      <c r="J264" s="8">
         <v>810</v>
       </c>
-      <c r="K264" s="5">
+      <c r="K264" s="8">
         <v>101</v>
       </c>
-      <c r="L264" s="5">
+      <c r="L264" s="8">
         <v>478</v>
       </c>
-      <c r="M264" s="5">
-        <v>42.603999999999999</v>
+      <c r="M264" s="6">
+        <v>42604</v>
       </c>
     </row>
     <row r="265" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A265" s="8" t="s">
+      <c r="A265" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B265" s="8"/>
+      <c r="B265" s="9"/>
       <c r="C265" s="2" t="s">
         <v>2</v>
       </c>
@@ -11519,11 +11533,11 @@
       <c r="F266" s="4">
         <v>2</v>
       </c>
-      <c r="G266" s="4">
-        <v>1.0760000000000001</v>
-      </c>
-      <c r="H266" s="4">
-        <v>1.5620000000000001</v>
+      <c r="G266" s="5">
+        <v>1076</v>
+      </c>
+      <c r="H266" s="5">
+        <v>1562</v>
       </c>
       <c r="I266" s="4">
         <v>300</v>
@@ -11537,8 +11551,8 @@
       <c r="L266" s="4">
         <v>20</v>
       </c>
-      <c r="M266" s="5">
-        <v>2.9780000000000002</v>
+      <c r="M266" s="6">
+        <v>2978</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
@@ -11561,8 +11575,8 @@
       <c r="G267" s="4">
         <v>646</v>
       </c>
-      <c r="H267" s="4">
-        <v>1.6919999999999999</v>
+      <c r="H267" s="5">
+        <v>1692</v>
       </c>
       <c r="I267" s="4">
         <v>569</v>
@@ -11576,8 +11590,8 @@
       <c r="L267" s="4">
         <v>2</v>
       </c>
-      <c r="M267" s="5">
-        <v>2.927</v>
+      <c r="M267" s="6">
+        <v>2927</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
@@ -11617,8 +11631,8 @@
       <c r="L268" s="4">
         <v>8</v>
       </c>
-      <c r="M268" s="5">
-        <v>2.0760000000000001</v>
+      <c r="M268" s="6">
+        <v>2076</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
@@ -11656,8 +11670,8 @@
       <c r="L269" s="4">
         <v>5</v>
       </c>
-      <c r="M269" s="5">
-        <v>1.7030000000000001</v>
+      <c r="M269" s="6">
+        <v>1703</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
@@ -11697,8 +11711,8 @@
       <c r="L270" s="4">
         <v>8</v>
       </c>
-      <c r="M270" s="5">
-        <v>1.77</v>
+      <c r="M270" s="6">
+        <v>1770</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
@@ -11736,8 +11750,8 @@
       <c r="L271" s="4">
         <v>9</v>
       </c>
-      <c r="M271" s="5">
-        <v>1.4470000000000001</v>
+      <c r="M271" s="6">
+        <v>1447</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.25">
@@ -11777,8 +11791,8 @@
       <c r="L272" s="4">
         <v>7</v>
       </c>
-      <c r="M272" s="5">
-        <v>1.851</v>
+      <c r="M272" s="6">
+        <v>1851</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.25">
@@ -11816,8 +11830,8 @@
       <c r="L273" s="4">
         <v>10</v>
       </c>
-      <c r="M273" s="5">
-        <v>1.673</v>
+      <c r="M273" s="6">
+        <v>1673</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
@@ -11857,8 +11871,8 @@
       <c r="L274" s="4">
         <v>5</v>
       </c>
-      <c r="M274" s="5">
-        <v>2.141</v>
+      <c r="M274" s="6">
+        <v>2141</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
@@ -11872,8 +11886,8 @@
       <c r="D275" s="4">
         <v>19</v>
       </c>
-      <c r="E275" s="4">
-        <v>1.1000000000000001</v>
+      <c r="E275" s="5">
+        <v>1100</v>
       </c>
       <c r="F275" s="4">
         <v>185</v>
@@ -11896,8 +11910,8 @@
       <c r="L275" s="4">
         <v>5</v>
       </c>
-      <c r="M275" s="5">
-        <v>1.925</v>
+      <c r="M275" s="6">
+        <v>1925</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.25">
@@ -11937,8 +11951,8 @@
       <c r="L276" s="4">
         <v>6</v>
       </c>
-      <c r="M276" s="5">
-        <v>2.25</v>
+      <c r="M276" s="6">
+        <v>2250</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
@@ -11952,8 +11966,8 @@
       <c r="D277" s="4">
         <v>18</v>
       </c>
-      <c r="E277" s="4">
-        <v>1.3029999999999999</v>
+      <c r="E277" s="5">
+        <v>1303</v>
       </c>
       <c r="F277" s="4">
         <v>217</v>
@@ -11976,8 +11990,8 @@
       <c r="L277" s="4">
         <v>12</v>
       </c>
-      <c r="M277" s="5">
-        <v>2.0270000000000001</v>
+      <c r="M277" s="6">
+        <v>2027</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
@@ -11993,8 +12007,8 @@
       <c r="D278" s="4">
         <v>5</v>
       </c>
-      <c r="E278" s="4">
-        <v>1.1619999999999999</v>
+      <c r="E278" s="5">
+        <v>1162</v>
       </c>
       <c r="F278" s="4">
         <v>433</v>
@@ -12017,8 +12031,8 @@
       <c r="L278" s="4">
         <v>9</v>
       </c>
-      <c r="M278" s="5">
-        <v>2.4449999999999998</v>
+      <c r="M278" s="6">
+        <v>2445</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
@@ -12032,8 +12046,8 @@
       <c r="D279" s="4">
         <v>33</v>
       </c>
-      <c r="E279" s="4">
-        <v>1.5920000000000001</v>
+      <c r="E279" s="5">
+        <v>1592</v>
       </c>
       <c r="F279" s="4">
         <v>251</v>
@@ -12056,8 +12070,8 @@
       <c r="L279" s="4">
         <v>3</v>
       </c>
-      <c r="M279" s="5">
-        <v>2.3079999999999998</v>
+      <c r="M279" s="6">
+        <v>2308</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
@@ -12073,8 +12087,8 @@
       <c r="D280" s="4">
         <v>8</v>
       </c>
-      <c r="E280" s="4">
-        <v>1.2350000000000001</v>
+      <c r="E280" s="5">
+        <v>1235</v>
       </c>
       <c r="F280" s="4">
         <v>344</v>
@@ -12097,8 +12111,8 @@
       <c r="L280" s="4">
         <v>14</v>
       </c>
-      <c r="M280" s="5">
-        <v>2.2770000000000001</v>
+      <c r="M280" s="6">
+        <v>2277</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
@@ -12112,8 +12126,8 @@
       <c r="D281" s="4">
         <v>74</v>
       </c>
-      <c r="E281" s="4">
-        <v>1.7569999999999999</v>
+      <c r="E281" s="5">
+        <v>1757</v>
       </c>
       <c r="F281" s="4">
         <v>136</v>
@@ -12136,8 +12150,8 @@
       <c r="L281" s="4">
         <v>10</v>
       </c>
-      <c r="M281" s="5">
-        <v>2.35</v>
+      <c r="M281" s="6">
+        <v>2350</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
@@ -12153,8 +12167,8 @@
       <c r="D282" s="4">
         <v>12</v>
       </c>
-      <c r="E282" s="4">
-        <v>1.375</v>
+      <c r="E282" s="5">
+        <v>1375</v>
       </c>
       <c r="F282" s="4">
         <v>194</v>
@@ -12177,8 +12191,8 @@
       <c r="L282" s="4">
         <v>9</v>
       </c>
-      <c r="M282" s="5">
-        <v>2.14</v>
+      <c r="M282" s="6">
+        <v>2140</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.25">
@@ -12192,8 +12206,8 @@
       <c r="D283" s="4">
         <v>128</v>
       </c>
-      <c r="E283" s="4">
-        <v>1.577</v>
+      <c r="E283" s="5">
+        <v>1577</v>
       </c>
       <c r="F283" s="4">
         <v>82</v>
@@ -12216,8 +12230,8 @@
       <c r="L283" s="4">
         <v>2</v>
       </c>
-      <c r="M283" s="5">
-        <v>2.08</v>
+      <c r="M283" s="6">
+        <v>2080</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
@@ -12233,8 +12247,8 @@
       <c r="D284" s="4">
         <v>28</v>
       </c>
-      <c r="E284" s="4">
-        <v>1.2689999999999999</v>
+      <c r="E284" s="5">
+        <v>1269</v>
       </c>
       <c r="F284" s="4">
         <v>79</v>
@@ -12257,8 +12271,8 @@
       <c r="L284" s="4">
         <v>2</v>
       </c>
-      <c r="M284" s="5">
-        <v>1.7290000000000001</v>
+      <c r="M284" s="6">
+        <v>1729</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.25">
@@ -12272,8 +12286,8 @@
       <c r="D285" s="4">
         <v>186</v>
       </c>
-      <c r="E285" s="4">
-        <v>1.431</v>
+      <c r="E285" s="5">
+        <v>1431</v>
       </c>
       <c r="F285" s="4">
         <v>22</v>
@@ -12296,8 +12310,8 @@
       <c r="L285" s="4">
         <v>3</v>
       </c>
-      <c r="M285" s="5">
-        <v>1.859</v>
+      <c r="M285" s="6">
+        <v>1859</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
@@ -12337,8 +12351,8 @@
       <c r="L286" s="4">
         <v>2</v>
       </c>
-      <c r="M286" s="5">
-        <v>1.22</v>
+      <c r="M286" s="6">
+        <v>1220</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.25">
@@ -12376,8 +12390,8 @@
       <c r="L287" s="4">
         <v>3</v>
       </c>
-      <c r="M287" s="5">
-        <v>1.391</v>
+      <c r="M287" s="6">
+        <v>1391</v>
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.25">
@@ -12393,8 +12407,8 @@
       <c r="D288" s="4">
         <v>163</v>
       </c>
-      <c r="E288" s="4">
-        <v>1.591</v>
+      <c r="E288" s="5">
+        <v>1591</v>
       </c>
       <c r="F288" s="4">
         <v>10</v>
@@ -12417,8 +12431,8 @@
       <c r="L288" s="4">
         <v>1</v>
       </c>
-      <c r="M288" s="5">
-        <v>1.956</v>
+      <c r="M288" s="6">
+        <v>1956</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.25">
@@ -12432,8 +12446,8 @@
       <c r="D289" s="4">
         <v>462</v>
       </c>
-      <c r="E289" s="4">
-        <v>1.246</v>
+      <c r="E289" s="5">
+        <v>1246</v>
       </c>
       <c r="F289" s="4">
         <v>4</v>
@@ -12456,54 +12470,54 @@
       <c r="L289" s="4">
         <v>9</v>
       </c>
-      <c r="M289" s="5">
-        <v>2.4249999999999998</v>
+      <c r="M289" s="6">
+        <v>2425</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B290" s="6"/>
-      <c r="C290" s="5">
-        <v>1.3280000000000001</v>
-      </c>
-      <c r="D290" s="5">
-        <v>1.466</v>
-      </c>
-      <c r="E290" s="5">
-        <v>21.306999999999999</v>
-      </c>
-      <c r="F290" s="5">
-        <v>4.6760000000000002</v>
-      </c>
-      <c r="G290" s="5">
-        <v>6.7869999999999999</v>
-      </c>
-      <c r="H290" s="5">
-        <v>8.2829999999999995</v>
-      </c>
-      <c r="I290" s="5">
-        <v>4.57</v>
-      </c>
-      <c r="J290" s="5">
+      <c r="B290" s="7"/>
+      <c r="C290" s="6">
+        <v>1328</v>
+      </c>
+      <c r="D290" s="6">
+        <v>1466</v>
+      </c>
+      <c r="E290" s="6">
+        <v>21307</v>
+      </c>
+      <c r="F290" s="6">
+        <v>4676</v>
+      </c>
+      <c r="G290" s="6">
+        <v>6787</v>
+      </c>
+      <c r="H290" s="6">
+        <v>8283</v>
+      </c>
+      <c r="I290" s="6">
+        <v>4570</v>
+      </c>
+      <c r="J290" s="8">
         <v>329</v>
       </c>
-      <c r="K290" s="5">
+      <c r="K290" s="8">
         <v>38</v>
       </c>
-      <c r="L290" s="5">
+      <c r="L290" s="8">
         <v>164</v>
       </c>
-      <c r="M290" s="5">
-        <v>48.948</v>
+      <c r="M290" s="6">
+        <v>48948</v>
       </c>
     </row>
     <row r="291" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A291" s="8" t="s">
+      <c r="A291" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B291" s="8"/>
+      <c r="B291" s="9"/>
       <c r="C291" s="2" t="s">
         <v>2</v>
       </c>
@@ -12575,8 +12589,8 @@
       <c r="L292" s="4">
         <v>6</v>
       </c>
-      <c r="M292" s="5">
-        <v>1.0629999999999999</v>
+      <c r="M292" s="6">
+        <v>1063</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
@@ -12614,7 +12628,7 @@
       <c r="L293" s="4">
         <v>2</v>
       </c>
-      <c r="M293" s="5">
+      <c r="M293" s="8">
         <v>956</v>
       </c>
     </row>
@@ -12655,7 +12669,7 @@
       <c r="L294" s="4">
         <v>5</v>
       </c>
-      <c r="M294" s="5">
+      <c r="M294" s="8">
         <v>918</v>
       </c>
     </row>
@@ -12694,7 +12708,7 @@
       <c r="L295" s="4">
         <v>3</v>
       </c>
-      <c r="M295" s="5">
+      <c r="M295" s="8">
         <v>813</v>
       </c>
     </row>
@@ -12735,7 +12749,7 @@
       <c r="L296" s="4">
         <v>4</v>
       </c>
-      <c r="M296" s="5">
+      <c r="M296" s="8">
         <v>897</v>
       </c>
     </row>
@@ -12774,7 +12788,7 @@
       <c r="L297" s="4">
         <v>7</v>
       </c>
-      <c r="M297" s="5">
+      <c r="M297" s="8">
         <v>777</v>
       </c>
     </row>
@@ -12815,7 +12829,7 @@
       <c r="L298" s="4">
         <v>2</v>
       </c>
-      <c r="M298" s="5">
+      <c r="M298" s="8">
         <v>904</v>
       </c>
     </row>
@@ -12854,7 +12868,7 @@
       <c r="L299" s="4">
         <v>7</v>
       </c>
-      <c r="M299" s="5">
+      <c r="M299" s="8">
         <v>838</v>
       </c>
     </row>
@@ -12895,8 +12909,8 @@
       <c r="L300" s="4">
         <v>10</v>
       </c>
-      <c r="M300" s="5">
-        <v>1.042</v>
+      <c r="M300" s="6">
+        <v>1042</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.25">
@@ -12934,7 +12948,7 @@
       <c r="L301" s="4">
         <v>4</v>
       </c>
-      <c r="M301" s="5">
+      <c r="M301" s="8">
         <v>969</v>
       </c>
     </row>
@@ -12975,7 +12989,7 @@
       <c r="L302" s="4">
         <v>9</v>
       </c>
-      <c r="M302" s="5">
+      <c r="M302" s="8">
         <v>969</v>
       </c>
     </row>
@@ -13014,8 +13028,8 @@
       <c r="L303" s="4">
         <v>4</v>
       </c>
-      <c r="M303" s="5">
-        <v>1.0129999999999999</v>
+      <c r="M303" s="6">
+        <v>1013</v>
       </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.25">
@@ -13055,8 +13069,8 @@
       <c r="L304" s="4">
         <v>12</v>
       </c>
-      <c r="M304" s="5">
-        <v>1.0289999999999999</v>
+      <c r="M304" s="6">
+        <v>1029</v>
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.25">
@@ -13094,7 +13108,7 @@
       <c r="L305" s="4">
         <v>6</v>
       </c>
-      <c r="M305" s="5">
+      <c r="M305" s="8">
         <v>952</v>
       </c>
     </row>
@@ -13135,8 +13149,8 @@
       <c r="L306" s="4">
         <v>14</v>
       </c>
-      <c r="M306" s="5">
-        <v>1.0009999999999999</v>
+      <c r="M306" s="6">
+        <v>1001</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.25">
@@ -13174,8 +13188,8 @@
       <c r="L307" s="4">
         <v>8</v>
       </c>
-      <c r="M307" s="5">
-        <v>1.006</v>
+      <c r="M307" s="6">
+        <v>1006</v>
       </c>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.25">
@@ -13215,7 +13229,7 @@
       <c r="L308" s="4">
         <v>9</v>
       </c>
-      <c r="M308" s="5">
+      <c r="M308" s="8">
         <v>933</v>
       </c>
     </row>
@@ -13254,7 +13268,7 @@
       <c r="L309" s="4">
         <v>22</v>
       </c>
-      <c r="M309" s="5">
+      <c r="M309" s="8">
         <v>952</v>
       </c>
     </row>
@@ -13295,7 +13309,7 @@
       <c r="L310" s="4">
         <v>16</v>
       </c>
-      <c r="M310" s="5">
+      <c r="M310" s="8">
         <v>849</v>
       </c>
     </row>
@@ -13334,7 +13348,7 @@
       <c r="L311" s="4">
         <v>11</v>
       </c>
-      <c r="M311" s="5">
+      <c r="M311" s="8">
         <v>885</v>
       </c>
     </row>
@@ -13375,7 +13389,7 @@
       <c r="L312" s="4">
         <v>9</v>
       </c>
-      <c r="M312" s="5">
+      <c r="M312" s="8">
         <v>648</v>
       </c>
     </row>
@@ -13414,7 +13428,7 @@
       <c r="L313" s="4">
         <v>11</v>
       </c>
-      <c r="M313" s="5">
+      <c r="M313" s="8">
         <v>682</v>
       </c>
     </row>
@@ -13455,7 +13469,7 @@
       <c r="L314" s="4">
         <v>7</v>
       </c>
-      <c r="M314" s="5">
+      <c r="M314" s="8">
         <v>918</v>
       </c>
     </row>
@@ -13494,54 +13508,54 @@
       <c r="L315" s="4">
         <v>3</v>
       </c>
-      <c r="M315" s="5">
-        <v>1.1619999999999999</v>
+      <c r="M315" s="6">
+        <v>1162</v>
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B316" s="6"/>
-      <c r="C316" s="5">
+      <c r="B316" s="7"/>
+      <c r="C316" s="8">
         <v>157</v>
       </c>
-      <c r="D316" s="5">
+      <c r="D316" s="8">
         <v>825</v>
       </c>
-      <c r="E316" s="5">
-        <v>5.9080000000000004</v>
-      </c>
-      <c r="F316" s="5">
-        <v>1.7829999999999999</v>
-      </c>
-      <c r="G316" s="5">
-        <v>2.3580000000000001</v>
-      </c>
-      <c r="H316" s="5">
-        <v>5.7089999999999996</v>
-      </c>
-      <c r="I316" s="5">
-        <v>4.57</v>
-      </c>
-      <c r="J316" s="5">
+      <c r="E316" s="6">
+        <v>5908</v>
+      </c>
+      <c r="F316" s="6">
+        <v>1783</v>
+      </c>
+      <c r="G316" s="6">
+        <v>2358</v>
+      </c>
+      <c r="H316" s="6">
+        <v>5709</v>
+      </c>
+      <c r="I316" s="6">
+        <v>4570</v>
+      </c>
+      <c r="J316" s="8">
         <v>522</v>
       </c>
-      <c r="K316" s="5">
+      <c r="K316" s="8">
         <v>153</v>
       </c>
-      <c r="L316" s="5">
+      <c r="L316" s="8">
         <v>191</v>
       </c>
-      <c r="M316" s="5">
-        <v>22.175999999999998</v>
+      <c r="M316" s="6">
+        <v>22176</v>
       </c>
     </row>
     <row r="317" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A317" s="8" t="s">
+      <c r="A317" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B317" s="8"/>
+      <c r="B317" s="9"/>
       <c r="C317" s="2" t="s">
         <v>2</v>
       </c>
@@ -13598,8 +13612,8 @@
       <c r="G318" s="4">
         <v>395</v>
       </c>
-      <c r="H318" s="4">
-        <v>1.32</v>
+      <c r="H318" s="5">
+        <v>1320</v>
       </c>
       <c r="I318" s="4">
         <v>291</v>
@@ -13613,8 +13627,8 @@
       <c r="L318" s="4">
         <v>12</v>
       </c>
-      <c r="M318" s="5">
-        <v>2.0270000000000001</v>
+      <c r="M318" s="6">
+        <v>2027</v>
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.25">
@@ -13637,8 +13651,8 @@
       <c r="G319" s="4">
         <v>235</v>
       </c>
-      <c r="H319" s="4">
-        <v>1.1759999999999999</v>
+      <c r="H319" s="5">
+        <v>1176</v>
       </c>
       <c r="I319" s="4">
         <v>459</v>
@@ -13652,8 +13666,8 @@
       <c r="L319" s="4">
         <v>2</v>
       </c>
-      <c r="M319" s="5">
-        <v>1.879</v>
+      <c r="M319" s="6">
+        <v>1879</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.25">
@@ -13693,8 +13707,8 @@
       <c r="L320" s="4">
         <v>7</v>
       </c>
-      <c r="M320" s="5">
-        <v>1.478</v>
+      <c r="M320" s="6">
+        <v>1478</v>
       </c>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.25">
@@ -13732,8 +13746,8 @@
       <c r="L321" s="4">
         <v>7</v>
       </c>
-      <c r="M321" s="5">
-        <v>1.4590000000000001</v>
+      <c r="M321" s="6">
+        <v>1459</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.25">
@@ -13773,8 +13787,8 @@
       <c r="L322" s="4">
         <v>5</v>
       </c>
-      <c r="M322" s="5">
-        <v>1.5289999999999999</v>
+      <c r="M322" s="6">
+        <v>1529</v>
       </c>
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.25">
@@ -13812,8 +13826,8 @@
       <c r="L323" s="4">
         <v>7</v>
       </c>
-      <c r="M323" s="5">
-        <v>1.431</v>
+      <c r="M323" s="6">
+        <v>1431</v>
       </c>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.25">
@@ -13853,8 +13867,8 @@
       <c r="L324" s="4">
         <v>9</v>
       </c>
-      <c r="M324" s="5">
-        <v>1.704</v>
+      <c r="M324" s="6">
+        <v>1704</v>
       </c>
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.25">
@@ -13892,8 +13906,8 @@
       <c r="L325" s="4">
         <v>9</v>
       </c>
-      <c r="M325" s="5">
-        <v>1.552</v>
+      <c r="M325" s="6">
+        <v>1552</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.25">
@@ -13933,8 +13947,8 @@
       <c r="L326" s="4">
         <v>4</v>
       </c>
-      <c r="M326" s="5">
-        <v>1.744</v>
+      <c r="M326" s="6">
+        <v>1744</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.25">
@@ -13972,8 +13986,8 @@
       <c r="L327" s="4">
         <v>5</v>
       </c>
-      <c r="M327" s="5">
-        <v>1.623</v>
+      <c r="M327" s="6">
+        <v>1623</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.25">
@@ -14013,8 +14027,8 @@
       <c r="L328" s="4">
         <v>5</v>
       </c>
-      <c r="M328" s="5">
-        <v>1.591</v>
+      <c r="M328" s="6">
+        <v>1591</v>
       </c>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.25">
@@ -14052,8 +14066,8 @@
       <c r="L329" s="4">
         <v>4</v>
       </c>
-      <c r="M329" s="5">
-        <v>1.49</v>
+      <c r="M329" s="6">
+        <v>1490</v>
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.25">
@@ -14093,8 +14107,8 @@
       <c r="L330" s="4">
         <v>6</v>
       </c>
-      <c r="M330" s="5">
-        <v>1.603</v>
+      <c r="M330" s="6">
+        <v>1603</v>
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.25">
@@ -14132,8 +14146,8 @@
       <c r="L331" s="4">
         <v>7</v>
       </c>
-      <c r="M331" s="5">
-        <v>1.5820000000000001</v>
+      <c r="M331" s="6">
+        <v>1582</v>
       </c>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.25">
@@ -14173,8 +14187,8 @@
       <c r="L332" s="4">
         <v>6</v>
       </c>
-      <c r="M332" s="5">
-        <v>1.5820000000000001</v>
+      <c r="M332" s="6">
+        <v>1582</v>
       </c>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.25">
@@ -14188,8 +14202,8 @@
       <c r="D333" s="4">
         <v>45</v>
       </c>
-      <c r="E333" s="4">
-        <v>1.004</v>
+      <c r="E333" s="5">
+        <v>1004</v>
       </c>
       <c r="F333" s="4">
         <v>126</v>
@@ -14212,8 +14226,8 @@
       <c r="L333" s="4">
         <v>8</v>
       </c>
-      <c r="M333" s="5">
-        <v>1.635</v>
+      <c r="M333" s="6">
+        <v>1635</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.25">
@@ -14253,8 +14267,8 @@
       <c r="L334" s="4">
         <v>6</v>
       </c>
-      <c r="M334" s="5">
-        <v>1.5149999999999999</v>
+      <c r="M334" s="6">
+        <v>1515</v>
       </c>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.25">
@@ -14268,8 +14282,8 @@
       <c r="D335" s="4">
         <v>81</v>
       </c>
-      <c r="E335" s="4">
-        <v>1.0009999999999999</v>
+      <c r="E335" s="5">
+        <v>1001</v>
       </c>
       <c r="F335" s="4">
         <v>48</v>
@@ -14292,8 +14306,8 @@
       <c r="L335" s="4">
         <v>5</v>
       </c>
-      <c r="M335" s="5">
-        <v>1.4490000000000001</v>
+      <c r="M335" s="6">
+        <v>1449</v>
       </c>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.25">
@@ -14333,8 +14347,8 @@
       <c r="L336" s="4">
         <v>9</v>
       </c>
-      <c r="M336" s="5">
-        <v>1.2849999999999999</v>
+      <c r="M336" s="6">
+        <v>1285</v>
       </c>
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.25">
@@ -14372,8 +14386,8 @@
       <c r="L337" s="4">
         <v>6</v>
       </c>
-      <c r="M337" s="5">
-        <v>1.288</v>
+      <c r="M337" s="6">
+        <v>1288</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.25">
@@ -14413,7 +14427,7 @@
       <c r="L338" s="4">
         <v>5</v>
       </c>
-      <c r="M338" s="5">
+      <c r="M338" s="8">
         <v>887</v>
       </c>
     </row>
@@ -14452,8 +14466,8 @@
       <c r="L339" s="4">
         <v>3</v>
       </c>
-      <c r="M339" s="5">
-        <v>1.02</v>
+      <c r="M339" s="6">
+        <v>1020</v>
       </c>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.25">
@@ -14469,8 +14483,8 @@
       <c r="D340" s="4">
         <v>99</v>
       </c>
-      <c r="E340" s="4">
-        <v>1.032</v>
+      <c r="E340" s="5">
+        <v>1032</v>
       </c>
       <c r="F340" s="4">
         <v>11</v>
@@ -14493,8 +14507,8 @@
       <c r="L340" s="4">
         <v>7</v>
       </c>
-      <c r="M340" s="5">
-        <v>1.3120000000000001</v>
+      <c r="M340" s="6">
+        <v>1312</v>
       </c>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.25">
@@ -14508,8 +14522,8 @@
       <c r="D341" s="4">
         <v>507</v>
       </c>
-      <c r="E341" s="4">
-        <v>1.0369999999999999</v>
+      <c r="E341" s="5">
+        <v>1037</v>
       </c>
       <c r="F341" s="4">
         <v>1</v>
@@ -14532,47 +14546,57 @@
       <c r="L341" s="4">
         <v>4</v>
       </c>
-      <c r="M341" s="5">
-        <v>1.9330000000000001</v>
+      <c r="M341" s="6">
+        <v>1933</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B342" s="6"/>
-      <c r="C342" s="5">
+      <c r="B342" s="7"/>
+      <c r="C342" s="8">
         <v>729</v>
       </c>
-      <c r="D342" s="5">
-        <v>1.1779999999999999</v>
-      </c>
-      <c r="E342" s="5">
-        <v>11.47</v>
-      </c>
-      <c r="F342" s="5">
-        <v>3.476</v>
-      </c>
-      <c r="G342" s="5">
-        <v>4.5129999999999999</v>
-      </c>
-      <c r="H342" s="5">
-        <v>9.0169999999999995</v>
-      </c>
-      <c r="I342" s="5">
-        <v>5.6269999999999998</v>
-      </c>
-      <c r="J342" s="5">
+      <c r="D342" s="6">
+        <v>1178</v>
+      </c>
+      <c r="E342" s="6">
+        <v>11470</v>
+      </c>
+      <c r="F342" s="6">
+        <v>3476</v>
+      </c>
+      <c r="G342" s="6">
+        <v>4513</v>
+      </c>
+      <c r="H342" s="6">
+        <v>9017</v>
+      </c>
+      <c r="I342" s="6">
+        <v>5627</v>
+      </c>
+      <c r="J342" s="8">
         <v>410</v>
       </c>
-      <c r="K342" s="5">
+      <c r="K342" s="8">
         <v>30</v>
       </c>
-      <c r="L342" s="5">
+      <c r="L342" s="8">
         <v>148</v>
       </c>
-      <c r="M342" s="5">
-        <v>36.597999999999999</v>
+      <c r="M342" s="6">
+        <v>36598</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A343" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A344" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
